--- a/assets/excel/2021_4-1-2.xlsx
+++ b/assets/excel/2021_4-1-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\GitHub\IM_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F523C050-F2F9-4018-A400-F8E9EE32F920}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD5F54B-ADFC-4FCE-94CD-1D518884E563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13110" xr2:uid="{F304386B-439C-48AA-815C-623000B3A68B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="33">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -406,7 +406,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -427,33 +427,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -461,18 +434,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -567,15 +528,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -636,14 +588,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -965,7 +962,7 @@
   <dimension ref="B1:R150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,427 +1017,427 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="70"/>
+      <c r="G6" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="70"/>
+      <c r="I6" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="69"/>
+      <c r="K6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11" t="s">
+      <c r="L6" s="70"/>
+      <c r="M6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11" t="s">
+      <c r="N6" s="70"/>
+      <c r="O6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11" t="s">
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="13"/>
+      <c r="R6" s="71"/>
     </row>
     <row r="7" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="13" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
     </row>
     <row r="9" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="12">
         <v>3</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="12">
         <v>4</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="12">
         <v>5</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="12">
         <v>6</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="12">
         <v>7</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="12">
         <v>8</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="12">
         <v>9</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9" s="12">
         <v>10</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="12">
         <v>11</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="12">
         <v>12</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="12">
         <v>13</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9" s="12">
         <v>14</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="12">
         <v>15</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9" s="12">
         <v>16</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="80">
+    <row r="10" spans="2:18" s="66" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="64">
         <v>1</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="17">
         <v>2020</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="18">
         <v>68.313140726933824</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="18">
         <v>31.686859273066169</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="18">
         <v>88.212765957446805</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="18">
         <v>11.787234042553193</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="18">
         <v>86.74314850223071</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="18">
         <v>13.256851497769279</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="18">
         <v>93.911135490948979</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="18">
         <v>6.0888645090510147</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="18">
         <v>92.311962253677493</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="18">
         <v>7.68803774632251</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="18">
         <v>89.00709219858156</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="18">
         <v>10.99290780141844</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="18">
         <v>89.781123658162556</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="18">
         <v>10.218876341837447</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="80">
+    <row r="11" spans="2:18" s="66" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="64">
         <v>2</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="17">
         <v>2020</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="18">
         <v>63.49809885931559</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="18">
         <v>36.50190114068441</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="18">
         <v>83.827493261455515</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="18">
         <v>16.172506738544474</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="18">
         <v>80.932340563289102</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="18">
         <v>19.067659436710908</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="18">
         <v>94.62603878116343</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="18">
         <v>5.3739612188365644</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="18">
         <v>87.394477035341254</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="18">
         <v>12.60552296465875</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="18">
         <v>86.196319018404907</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="18">
         <v>13.803680981595093</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="18">
         <v>88.027993001749564</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="18">
         <v>11.972006998250437</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="80">
+    <row r="12" spans="2:18" s="66" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="64">
         <v>3</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="17">
         <v>2020</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="18">
         <v>78.506097560975604</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="18">
         <v>21.493902439024389</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="18">
         <v>89.874301675977648</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="18">
         <v>10.125698324022347</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="18">
         <v>88.153110047846894</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="18">
         <v>11.846889952153109</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="18">
         <v>96.384315056866413</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="18">
         <v>3.6156849431335938</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="18">
         <v>92.614434147711322</v>
       </c>
-      <c r="N12" s="31">
+      <c r="N12" s="18">
         <v>7.3855658522886838</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="18">
         <v>96.739130434782609</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="18">
         <v>3.2608695652173911</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="18">
         <v>91.816626349637147</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="18">
         <v>8.1833736503628529</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="80">
+    <row r="13" spans="2:18" s="66" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="64">
         <v>4</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="17">
         <v>2020</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="18">
         <v>72.154280338664151</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="18">
         <v>27.845719661335842</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="18">
         <v>89.501084598698483</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="18">
         <v>10.498915401301518</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="18">
         <v>83.860311467673426</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="18">
         <v>16.139688532326566</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="18">
         <v>95.285696655559676</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="18">
         <v>4.7143033444403306</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="18">
         <v>93.043684710351386</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="18">
         <v>6.9563152896486233</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="18">
         <v>88.888888888888886</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="18">
         <v>11.111111111111111</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="18">
         <v>89.30634670544984</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="18">
         <v>10.693653294550156</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="82" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="85">
+    <row r="14" spans="2:18" s="66" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="68">
         <v>0</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="17">
         <v>2020</v>
       </c>
-      <c r="E14" s="31">
+      <c r="E14" s="18">
         <v>70.795660036166367</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="18">
         <v>29.204339963833636</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="18">
         <v>87.861999496348531</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="18">
         <v>12.138000503651474</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="18">
         <v>84.835775369028809</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="18">
         <v>15.164224630971185</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="18">
         <v>95.068020837237185</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="18">
         <v>4.9319791627628078</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="18">
         <v>90.667029676014153</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="18">
         <v>9.3329703239858421</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="18">
         <v>89.321789321789325</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="18">
         <v>10.678210678210679</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="18">
         <v>89.61908143005536</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="18">
         <v>10.380918569944644</v>
       </c>
     </row>
@@ -1448,52 +1445,52 @@
       <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="17">
         <v>2019</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="18">
         <v>70.48092868988391</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="18">
         <v>29.519071310116086</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="18">
         <v>87.795765877957649</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="18">
         <v>12.204234122042342</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="18">
         <v>87.970388648982109</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="18">
         <v>12.029611351017889</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="18">
         <v>95.226686325101355</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="18">
         <v>4.7733136748986364</v>
       </c>
-      <c r="M15" s="31">
+      <c r="M15" s="18">
         <v>93.983739837398375</v>
       </c>
-      <c r="N15" s="31">
+      <c r="N15" s="18">
         <v>6.0162601626016263</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="18">
         <v>89.743589743589752</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="18">
         <v>10.256410256410255</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="18">
         <v>90.731344293349565</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="18">
         <v>9.2686557066504296</v>
       </c>
     </row>
@@ -1501,52 +1498,52 @@
       <c r="B16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="17">
         <v>2019</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="18">
         <v>64.579901153212518</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="18">
         <v>35.420098846787482</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="18">
         <v>84.34567901234567</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="18">
         <v>15.654320987654321</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="18">
         <v>80.182002022244689</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="18">
         <v>19.817997977755308</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="18">
         <v>95.180070403466019</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="18">
         <v>4.8199295965339832</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16" s="18">
         <v>89.176369124622681</v>
       </c>
-      <c r="N16" s="31">
+      <c r="N16" s="18">
         <v>10.823630875377317</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="18">
         <v>93.430656934306569</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="18">
         <v>6.5693430656934311</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="18">
         <v>88.945827232796475</v>
       </c>
-      <c r="R16" s="31">
+      <c r="R16" s="18">
         <v>11.054172767203514</v>
       </c>
     </row>
@@ -1554,52 +1551,52 @@
       <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="17">
         <v>2019</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="18">
         <v>80.476900149031295</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="18">
         <v>19.523099850968702</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="18">
         <v>91.038696537678206</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="18">
         <v>8.9613034623217924</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="18">
         <v>89.574507275741382</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="18">
         <v>10.425492724258611</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="18">
         <v>97.168857431749245</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="18">
         <v>2.8311425682507583</v>
       </c>
-      <c r="M17" s="31">
+      <c r="M17" s="18">
         <v>93.85474860335195</v>
       </c>
-      <c r="N17" s="31">
+      <c r="N17" s="18">
         <v>6.1452513966480442</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="18">
         <v>91.807909604519779</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="18">
         <v>8.1920903954802249</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="18">
         <v>92.85591422510177</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="18">
         <v>7.1440857748982287</v>
       </c>
     </row>
@@ -1607,105 +1604,105 @@
       <c r="B18" s="4">
         <v>4</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="17">
         <v>2019</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="18">
         <v>74.647887323943664</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="18">
         <v>25.352112676056336</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="18">
         <v>91.069330199764991</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="18">
         <v>8.9306698002350178</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="18">
         <v>96.549622043404042</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="18">
         <v>3.4503779565959523</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="18">
         <v>96.549622043404042</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="18">
         <v>3.4503779565959523</v>
       </c>
-      <c r="M18" s="31">
+      <c r="M18" s="18">
         <v>93.781634128705718</v>
       </c>
-      <c r="N18" s="31">
+      <c r="N18" s="18">
         <v>6.2183658712942878</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="18">
         <v>92.620624408703875</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="18">
         <v>7.379375591296121</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="18">
         <v>90.678195082410156</v>
       </c>
-      <c r="R18" s="31">
+      <c r="R18" s="18">
         <v>9.3218049175898408</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28">
+      <c r="B19" s="15">
         <v>0</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="17">
         <v>2019</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="18">
         <v>72.651933701657455</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="18">
         <v>27.348066298342545</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="18">
         <v>88.522458628841605</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="18">
         <v>11.477541371158392</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="18">
         <v>86.036012110267166</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="18">
         <v>13.963987889732831</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="18">
         <v>96.044233338281131</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="18">
         <v>3.955766661718866</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M19" s="18">
         <v>92.092947322594682</v>
       </c>
-      <c r="N19" s="31">
+      <c r="N19" s="18">
         <v>7.9070526774053116</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="18">
         <v>92.169179229480733</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="18">
         <v>7.8308207705192627</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="18">
         <v>90.719800557117239</v>
       </c>
-      <c r="R19" s="31">
+      <c r="R19" s="18">
         <v>9.2801994428827648</v>
       </c>
     </row>
@@ -1713,52 +1710,52 @@
       <c r="B20" s="4">
         <v>1</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="17">
         <v>2018</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="18">
         <v>73.902633679169995</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="18">
         <v>26.097366320830005</v>
       </c>
-      <c r="G20" s="31">
+      <c r="G20" s="18">
         <v>90.558103975535161</v>
       </c>
-      <c r="H20" s="31">
+      <c r="H20" s="18">
         <v>9.4418960244648318</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="18">
         <v>87.625</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="18">
         <v>12.375</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="18">
         <v>96</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="18">
         <v>4</v>
       </c>
-      <c r="M20" s="31">
+      <c r="M20" s="18">
         <v>92.991563919532766</v>
       </c>
-      <c r="N20" s="31">
+      <c r="N20" s="18">
         <v>7.008436080467229</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="18">
         <v>88.603988603988597</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="18">
         <v>11.396011396011396</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="18">
         <v>91.40630341149928</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="18">
         <v>8.5936965885007179</v>
       </c>
     </row>
@@ -1766,52 +1763,52 @@
       <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="17">
         <v>2018</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="18">
         <v>69.328063241106719</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="18">
         <v>30.671936758893281</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="18">
         <v>86.256200758681061</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="18">
         <v>13.743799241318937</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="18">
         <v>85.719310587407676</v>
       </c>
-      <c r="J21" s="31">
+      <c r="J21" s="18">
         <v>14.280689412592332</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="18">
         <v>95.817720294935327</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="18">
         <v>4.1822797050646683</v>
       </c>
-      <c r="M21" s="31">
+      <c r="M21" s="18">
         <v>89.930555555555557</v>
       </c>
-      <c r="N21" s="31">
+      <c r="N21" s="18">
         <v>10.069444444444445</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="18">
         <v>92.05175600739372</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="18">
         <v>7.9482439926062849</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="18">
         <v>89.893076588127158</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="18">
         <v>10.106923411872854</v>
       </c>
     </row>
@@ -1819,52 +1816,52 @@
       <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="17">
         <v>2018</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="18">
         <v>83.549351944167498</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="18">
         <v>16.450648055832502</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="18">
         <v>93.519751442521084</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="18">
         <v>6.4802485574789168</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="18">
         <v>90.149738408803898</v>
       </c>
-      <c r="J22" s="31">
+      <c r="J22" s="18">
         <v>9.8502615911961033</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="18">
         <v>97.3</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="18">
         <v>2.7</v>
       </c>
-      <c r="M22" s="31">
+      <c r="M22" s="18">
         <v>93.895781637717121</v>
       </c>
-      <c r="N22" s="31">
+      <c r="N22" s="18">
         <v>6.1042183622828778</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="18">
         <v>90.965732087227408</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="18">
         <v>9.0342679127725845</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="18">
         <v>93.327342170298806</v>
       </c>
-      <c r="R22" s="31">
+      <c r="R22" s="18">
         <v>6.6726578297011914</v>
       </c>
     </row>
@@ -1872,105 +1869,105 @@
       <c r="B23" s="4">
         <v>4</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="17">
         <v>2018</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="18">
         <v>79.099678456591633</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="18">
         <v>20.90032154340836</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="18">
         <v>91.854636591478695</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="18">
         <v>8.1453634085213036</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="18">
         <v>87.821906833009038</v>
       </c>
-      <c r="J23" s="31">
+      <c r="J23" s="18">
         <v>12.178093166990958</v>
       </c>
-      <c r="K23" s="31">
+      <c r="K23" s="18">
         <v>96.823159492572913</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="18">
         <v>3.1768405074270847</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="18">
         <v>94.44629198536748</v>
       </c>
-      <c r="N23" s="31">
+      <c r="N23" s="18">
         <v>5.5537080146325239</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="18">
         <v>91.062801932367151</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="18">
         <v>8.9371980676328491</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="18">
         <v>91.775299525280687</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="18">
         <v>8.2247004747193131</v>
       </c>
     </row>
-    <row r="24" spans="2:18" s="34" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28">
+    <row r="24" spans="2:18" s="21" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="15">
         <v>0</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="19">
         <v>2018</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="20">
         <v>76.26083530338849</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="20">
         <v>23.739164696611507</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="20">
         <v>90.215877437325915</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="20">
         <v>9.784122562674094</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="20">
         <v>88.174971959621857</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="20">
         <v>11.825028040378145</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="20">
         <v>96.497156239545006</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="20">
         <v>3.5028437604550016</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="20">
         <v>92.425949774629743</v>
       </c>
-      <c r="N24" s="33">
+      <c r="N24" s="20">
         <v>7.5740502253702502</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="20">
         <v>90.886820186183243</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="20">
         <v>9.1131798138167568</v>
       </c>
-      <c r="Q24" s="33">
+      <c r="Q24" s="20">
         <v>91.566007885286666</v>
       </c>
-      <c r="R24" s="33">
+      <c r="R24" s="20">
         <v>8.4339921147133428</v>
       </c>
     </row>
@@ -1978,52 +1975,52 @@
       <c r="B25" s="4">
         <v>1</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="17">
         <v>2017</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="18">
         <v>77.272727272727266</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="18">
         <v>22.727272727272727</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="18">
         <v>90.634110787172006</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="18">
         <v>9.3658892128279874</v>
       </c>
-      <c r="I25" s="31">
+      <c r="I25" s="18">
         <v>90.058479532163744</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="18">
         <v>9.9415204678362574</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="18">
         <v>95.570517363571938</v>
       </c>
-      <c r="L25" s="31">
+      <c r="L25" s="18">
         <v>4.4294826364280651</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="18">
         <v>94.806483625537538</v>
       </c>
-      <c r="N25" s="31">
+      <c r="N25" s="18">
         <v>5.1935163744624546</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="18">
         <v>89.075630252100851</v>
       </c>
-      <c r="P25" s="31">
+      <c r="P25" s="18">
         <v>10.92436974789916</v>
       </c>
-      <c r="Q25" s="31">
+      <c r="Q25" s="18">
         <v>92.095289658906339</v>
       </c>
-      <c r="R25" s="31">
+      <c r="R25" s="18">
         <v>7.904710341093665</v>
       </c>
     </row>
@@ -2031,52 +2028,52 @@
       <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="17">
         <v>2017</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="18">
         <v>72.385620915032675</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="18">
         <v>27.614379084967322</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="18">
         <v>88.401775804661483</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H26" s="18">
         <v>11.598224195338513</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="18">
         <v>85.622154779969648</v>
       </c>
-      <c r="J26" s="31">
+      <c r="J26" s="18">
         <v>14.37784522003035</v>
       </c>
-      <c r="K26" s="31">
+      <c r="K26" s="18">
         <v>95.411297121522338</v>
       </c>
-      <c r="L26" s="31">
+      <c r="L26" s="18">
         <v>4.5887028784776591</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="18">
         <v>91.013071895424829</v>
       </c>
-      <c r="N26" s="31">
+      <c r="N26" s="18">
         <v>8.9869281045751634</v>
       </c>
-      <c r="O26" s="31">
+      <c r="O26" s="18">
         <v>91.187739463601531</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="18">
         <v>8.8122605363984672</v>
       </c>
-      <c r="Q26" s="31">
+      <c r="Q26" s="18">
         <v>90.536139600447186</v>
       </c>
-      <c r="R26" s="31">
+      <c r="R26" s="18">
         <v>9.4638603995528126</v>
       </c>
     </row>
@@ -2084,52 +2081,52 @@
       <c r="B27" s="4">
         <v>3</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="17">
         <v>2017</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="18">
         <v>83.748753738783648</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="18">
         <v>16.251246261216352</v>
       </c>
-      <c r="G27" s="31">
+      <c r="G27" s="18">
         <v>94.031141868512108</v>
       </c>
-      <c r="H27" s="31">
+      <c r="H27" s="18">
         <v>5.968858131487889</v>
       </c>
-      <c r="I27" s="31">
+      <c r="I27" s="18">
         <v>91.663599558336401</v>
       </c>
-      <c r="J27" s="31">
+      <c r="J27" s="18">
         <v>8.3364004416635993</v>
       </c>
-      <c r="K27" s="31">
+      <c r="K27" s="18">
         <v>97.563098346388159</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="18">
         <v>2.4369016536118364</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="18">
         <v>95.328083989501309</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="18">
         <v>4.6719160104986877</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="18">
         <v>93.527508090614887</v>
       </c>
-      <c r="P27" s="31">
+      <c r="P27" s="18">
         <v>6.4724919093851128</v>
       </c>
-      <c r="Q27" s="31">
+      <c r="Q27" s="18">
         <v>94.226353810830489</v>
       </c>
-      <c r="R27" s="31">
+      <c r="R27" s="18">
         <v>5.7736461891695132</v>
       </c>
     </row>
@@ -2137,105 +2134,105 @@
       <c r="B28" s="4">
         <v>4</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="17">
         <v>2017</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="18">
         <v>83.601669648181272</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="18">
         <v>16.398330351818725</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="18">
         <v>92.655217965653904</v>
       </c>
-      <c r="H28" s="31">
+      <c r="H28" s="18">
         <v>7.3447820343461032</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="18">
         <v>88.612269207861829</v>
       </c>
-      <c r="J28" s="31">
+      <c r="J28" s="18">
         <v>11.387730792138177</v>
       </c>
-      <c r="K28" s="31">
+      <c r="K28" s="18">
         <v>97.005464480874309</v>
       </c>
-      <c r="L28" s="31">
+      <c r="L28" s="18">
         <v>2.9945355191256828</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="18">
         <v>95.584599081596608</v>
       </c>
-      <c r="N28" s="31">
+      <c r="N28" s="18">
         <v>4.4154009184033907</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="18">
         <v>92.167381974248926</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="18">
         <v>7.8326180257510734</v>
       </c>
-      <c r="Q28" s="31">
+      <c r="Q28" s="18">
         <v>92.599925289503176</v>
       </c>
-      <c r="R28" s="31">
+      <c r="R28" s="18">
         <v>7.400074710496825</v>
       </c>
     </row>
-    <row r="29" spans="2:18" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28">
+    <row r="29" spans="2:18" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="15">
         <v>0</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="19">
         <v>2017</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="20">
         <v>79.411764705882348</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="20">
         <v>20.588235294117645</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="20">
         <v>91.233427079148257</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="20">
         <v>8.7665729208517487</v>
       </c>
-      <c r="I29" s="33">
+      <c r="I29" s="20">
         <v>89.226960110041261</v>
       </c>
-      <c r="J29" s="33">
+      <c r="J29" s="20">
         <v>10.773039889958733</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="20">
         <v>96.422260011336732</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="20">
         <v>3.5777399886632657</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="20">
         <v>93.722494395084283</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="20">
         <v>6.277505604915719</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="20">
         <v>91.603773584905653</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="20">
         <v>8.3962264150943398</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="20">
         <v>92.338951685505648</v>
       </c>
-      <c r="R29" s="33">
+      <c r="R29" s="20">
         <v>7.661048314494348</v>
       </c>
     </row>
@@ -2243,52 +2240,52 @@
       <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="22">
         <v>2016</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="23">
         <v>81.403508771929822</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="23">
         <v>18.596491228070175</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="23">
         <v>90.344337948171813</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="23">
         <v>9.6556620518281857</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="23">
         <v>91.682661548304552</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="23">
         <v>8.3173384516954574</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="23">
         <v>94.2</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="23">
         <v>2.8</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30" s="23">
         <v>96.05602653888684</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="23">
         <v>3.9439734611131585</v>
       </c>
-      <c r="O30" s="36">
+      <c r="O30" s="23">
         <v>90.196078431372555</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="23">
         <v>9.8039215686274517</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="23">
         <v>92.946483493951206</v>
       </c>
-      <c r="R30" s="36">
+      <c r="R30" s="23">
         <v>7.0535165060488003</v>
       </c>
     </row>
@@ -2296,52 +2293,52 @@
       <c r="B31" s="4">
         <v>2</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="22">
         <v>2016</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="23">
         <v>78.844765342960287</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="23">
         <v>21.155234657039713</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="23">
         <v>89.614395886889469</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="23">
         <v>10.38560411311054</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="23">
         <v>89.390142021720962</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="23">
         <v>10.609857978279031</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="23">
         <v>96.418426577744839</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="23">
         <v>3.5815734222551563</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="23">
         <v>92.442173211403983</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="23">
         <v>7.55782678859602</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="23">
         <v>92.199687987519496</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="23">
         <v>7.8003120124804992</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="23">
         <v>92.188819875776389</v>
       </c>
-      <c r="R31" s="36">
+      <c r="R31" s="23">
         <v>7.8111801242236032</v>
       </c>
     </row>
@@ -2349,52 +2346,52 @@
       <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="22">
         <v>2016</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="23">
         <v>84.343434343434339</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="23">
         <v>15.656565656565657</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="23">
         <v>94.15384615384616</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="23">
         <v>5.8461538461538458</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="23">
         <v>93.190512624330523</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="23">
         <v>6.8094873756694723</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="23">
         <v>97.746090156393734</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="23">
         <v>2.2539098436062557</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32" s="23">
         <v>97.280966767371595</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32" s="23">
         <v>2.7190332326283988</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32" s="23">
         <v>92.957746478873233</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="23">
         <v>7.042253521126761</v>
       </c>
-      <c r="Q32" s="36">
+      <c r="Q32" s="23">
         <v>94.808525188055611</v>
       </c>
-      <c r="R32" s="36">
+      <c r="R32" s="23">
         <v>5.1914748119443814</v>
       </c>
     </row>
@@ -2402,105 +2399,105 @@
       <c r="B33" s="4">
         <v>4</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="22">
         <v>2016</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="23">
         <v>84.323271665043819</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="23">
         <v>15.676728334956183</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="23">
         <v>93.7020316027088</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="23">
         <v>6.2979683972911964</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="23">
         <v>90.786240786240796</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="23">
         <v>9.2137592137592144</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="23">
         <v>97.445091887046161</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="23">
         <v>2.5549081129538322</v>
       </c>
-      <c r="M33" s="36">
+      <c r="M33" s="23">
         <v>95.620437956204384</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="23">
         <v>4.3795620437956204</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="23">
         <v>93.1640625</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="23">
         <v>6.8359375</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="23">
         <v>93.596601039414281</v>
       </c>
-      <c r="R33" s="36">
+      <c r="R33" s="23">
         <v>6.4033989605857142</v>
       </c>
     </row>
-    <row r="34" spans="2:18" s="34" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28">
+    <row r="34" spans="2:18" s="21" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
         <v>0</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="24">
         <v>2016</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="25">
         <v>82.385988103106413</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="25">
         <v>17.61401189689359</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="25">
         <v>91.941471937104168</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="25">
         <v>8.058528062895828</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="25">
         <v>91.429955787051057</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="25">
         <v>8.5700442129489431</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="25">
         <v>96.980990153172868</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="25">
         <v>3.0190098468271334</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34" s="25">
         <v>94.88258957807092</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="25">
         <v>5.1174104219290859</v>
       </c>
-      <c r="O34" s="38">
+      <c r="O34" s="25">
         <v>92.380560131795718</v>
       </c>
-      <c r="P34" s="38">
+      <c r="P34" s="25">
         <v>7.6194398682042834</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="Q34" s="25">
         <v>93.385876819424141</v>
       </c>
-      <c r="R34" s="38">
+      <c r="R34" s="25">
         <v>6.6141231805758594</v>
       </c>
     </row>
@@ -2508,52 +2505,52 @@
       <c r="B35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="22">
         <v>2015</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="23">
         <v>84.492350486787203</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="23">
         <v>15.507649513212796</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="23">
         <v>93.181076672104396</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="23">
         <v>6.8189233278955959</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="23">
         <v>94.859813084112147</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="23">
         <v>5.1401869158878499</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="23">
         <v>93.9</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="23">
         <v>2.6</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="23">
         <v>95.644149132521221</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="23">
         <v>4.3558508674787744</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="23">
         <v>89.555125725338485</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="23">
         <v>10.444874274661508</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="Q35" s="23">
         <v>94.408050246505027</v>
       </c>
-      <c r="R35" s="36">
+      <c r="R35" s="23">
         <v>5.5919497534949691</v>
       </c>
     </row>
@@ -2561,52 +2558,52 @@
       <c r="B36" s="4">
         <v>2</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="22">
         <v>2015</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="23">
         <v>79.856584093872229</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="23">
         <v>20.143415906127771</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="23">
         <v>91.330596474281577</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="23">
         <v>8.6694035257184243</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="23">
         <v>90.763390974272468</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="23">
         <v>9.2366090257275406</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="23">
         <v>96.465081906638744</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="23">
         <v>3.5349180933612514</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36" s="23">
         <v>91.67620137299771</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="23">
         <v>8.3237986270022883</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36" s="23">
         <v>90.701219512195124</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36" s="23">
         <v>9.2987804878048781</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="Q36" s="23">
         <v>92.489048580006894</v>
       </c>
-      <c r="R36" s="36">
+      <c r="R36" s="23">
         <v>7.5109514199931091</v>
       </c>
     </row>
@@ -2614,52 +2611,52 @@
       <c r="B37" s="4">
         <v>3</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="22">
         <v>2015</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="23">
         <v>85.397553516819571</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="23">
         <v>14.602446483180428</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="23">
         <v>96.382252559726965</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="23">
         <v>3.6177474402730376</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="23">
         <v>94.876395534290268</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="23">
         <v>5.1236044657097288</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="23">
         <v>98.547469302186286</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="23">
         <v>1.4525306978137167</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="23">
         <v>97.085492227979273</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="23">
         <v>2.9145077720207255</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="23">
         <v>92.688172043010752</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="23">
         <v>7.3118279569892479</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="23">
         <v>95.931107519090347</v>
       </c>
-      <c r="R37" s="36">
+      <c r="R37" s="23">
         <v>4.0688924809096489</v>
       </c>
     </row>
@@ -2667,105 +2664,105 @@
       <c r="B38" s="4">
         <v>4</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="22">
         <v>2015</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="23">
         <v>86.017121891561359</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="23">
         <v>13.982878108438646</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="23">
         <v>95.14910536779324</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="23">
         <v>4.8508946322067592</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="23">
         <v>93.10500225326723</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="23">
         <v>6.8949977467327628</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="23">
         <v>97.836458448907138</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="23">
         <v>2.1635415510928659</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="23">
         <v>97.319513938527521</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="23">
         <v>2.6804860614724801</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38" s="23">
         <v>93.224699828473405</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="23">
         <v>6.7753001715265864</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="23">
         <v>94.85562562230335</v>
       </c>
-      <c r="R38" s="36">
+      <c r="R38" s="23">
         <v>5.1443743776966482</v>
       </c>
     </row>
-    <row r="39" spans="2:18" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="28">
+    <row r="39" spans="2:18" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
         <v>0</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="24">
         <v>2015</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="25">
         <v>84.1675330461904</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="25">
         <v>15.832466953809595</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="25">
         <v>93.946986680733218</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="25">
         <v>6.053013319266781</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="25">
         <v>93.48861150431091</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="25">
         <v>6.5113884956891006</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="25">
         <v>97.529772031303168</v>
       </c>
-      <c r="L39" s="38">
+      <c r="L39" s="25">
         <v>2.4702279686968356</v>
       </c>
-      <c r="M39" s="38">
+      <c r="M39" s="25">
         <v>94.984355740968994</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39" s="25">
         <v>5.0156442590310037</v>
       </c>
-      <c r="O39" s="38">
+      <c r="O39" s="25">
         <v>91.868758915834519</v>
       </c>
-      <c r="P39" s="38">
+      <c r="P39" s="25">
         <v>8.1312410841654774</v>
       </c>
-      <c r="Q39" s="38">
+      <c r="Q39" s="25">
         <v>94.413958244992642</v>
       </c>
-      <c r="R39" s="38">
+      <c r="R39" s="25">
         <v>5.5860417550073578</v>
       </c>
     </row>
@@ -2773,52 +2770,52 @@
       <c r="B40" s="4">
         <v>1</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="26">
         <v>2014</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="27">
         <v>86.500283607487233</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="27">
         <v>13.499716392512761</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="27">
         <v>93.81606765327696</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="27">
         <v>6.1839323467230445</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="27">
         <v>96.561604584527217</v>
       </c>
-      <c r="J40" s="40">
+      <c r="J40" s="27">
         <v>3.4383954154727796</v>
       </c>
-      <c r="K40" s="40">
+      <c r="K40" s="27">
         <v>97.195308516063221</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="27">
         <v>2.8046914839367667</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="27">
         <v>96.278118609406945</v>
       </c>
-      <c r="N40" s="40">
+      <c r="N40" s="27">
         <v>3.7218813905930475</v>
       </c>
-      <c r="O40" s="40">
+      <c r="O40" s="27">
         <v>91.840607210626189</v>
       </c>
-      <c r="P40" s="40">
+      <c r="P40" s="27">
         <v>8.159392789373813</v>
       </c>
-      <c r="Q40" s="40">
+      <c r="Q40" s="27">
         <v>94.776360929509991</v>
       </c>
-      <c r="R40" s="40">
+      <c r="R40" s="27">
         <v>5.2236390704899991</v>
       </c>
     </row>
@@ -2826,52 +2823,52 @@
       <c r="B41" s="4">
         <v>2</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="28">
         <v>2014</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="29">
         <v>84.094407388404306</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="29">
         <v>15.90559261159569</v>
       </c>
-      <c r="G41" s="42">
+      <c r="G41" s="29">
         <v>91.752360965372503</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="29">
         <v>8.2476390346274915</v>
       </c>
-      <c r="I41" s="42">
+      <c r="I41" s="29">
         <v>92.284139620330691</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="29">
         <v>7.7158603796693201</v>
       </c>
-      <c r="K41" s="42">
+      <c r="K41" s="29">
         <v>96.6276923076923</v>
       </c>
-      <c r="L41" s="42">
+      <c r="L41" s="29">
         <v>3.3723076923076927</v>
       </c>
-      <c r="M41" s="42">
+      <c r="M41" s="29">
         <v>92.628571428571433</v>
       </c>
-      <c r="N41" s="42">
+      <c r="N41" s="29">
         <v>7.3714285714285719</v>
       </c>
-      <c r="O41" s="42">
+      <c r="O41" s="29">
         <v>86.526576019777508</v>
       </c>
-      <c r="P41" s="42">
+      <c r="P41" s="29">
         <v>13.473423980222496</v>
       </c>
-      <c r="Q41" s="42">
+      <c r="Q41" s="29">
         <v>92.92623069149704</v>
       </c>
-      <c r="R41" s="42">
+      <c r="R41" s="29">
         <v>7.0737693085029596</v>
       </c>
     </row>
@@ -2879,52 +2876,52 @@
       <c r="B42" s="4">
         <v>3</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="28">
         <v>2014</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="29">
         <v>89.040451552210726</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="29">
         <v>10.959548447789276</v>
       </c>
-      <c r="G42" s="42">
+      <c r="G42" s="29">
         <v>96.707070707070713</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="29">
         <v>3.2929292929292928</v>
       </c>
-      <c r="I42" s="42">
+      <c r="I42" s="29">
         <v>96.141479099678463</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="29">
         <v>3.8585209003215439</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="29">
         <v>98.278905560458966</v>
       </c>
-      <c r="L42" s="42">
+      <c r="L42" s="29">
         <v>1.7210944395410415</v>
       </c>
-      <c r="M42" s="42">
+      <c r="M42" s="29">
         <v>96.958855098389989</v>
       </c>
-      <c r="N42" s="42">
+      <c r="N42" s="29">
         <v>3.0411449016100178</v>
       </c>
-      <c r="O42" s="42">
+      <c r="O42" s="29">
         <v>90.121317157712298</v>
       </c>
-      <c r="P42" s="42">
+      <c r="P42" s="29">
         <v>9.8786828422876951</v>
       </c>
-      <c r="Q42" s="42">
+      <c r="Q42" s="29">
         <v>96.123989506932915</v>
       </c>
-      <c r="R42" s="42">
+      <c r="R42" s="29">
         <v>3.8760104930670809</v>
       </c>
     </row>
@@ -2932,105 +2929,105 @@
       <c r="B43" s="4">
         <v>4</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="28">
         <v>2014</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="29">
         <v>87.415799142682175</v>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="29">
         <v>12.584200857317821</v>
       </c>
-      <c r="G43" s="42">
+      <c r="G43" s="29">
         <v>94.854126960856178</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="29">
         <v>5.1458730391438205</v>
       </c>
-      <c r="I43" s="42">
+      <c r="I43" s="29">
         <v>94.944341372912803</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="29">
         <v>5.0556586270871984</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="29">
         <v>97.60907888937858</v>
       </c>
-      <c r="L43" s="42">
+      <c r="L43" s="29">
         <v>2.3909211106214192</v>
       </c>
-      <c r="M43" s="42">
+      <c r="M43" s="29">
         <v>97.566291318561568</v>
       </c>
-      <c r="N43" s="42">
+      <c r="N43" s="29">
         <v>2.4337086814384308</v>
       </c>
-      <c r="O43" s="42">
+      <c r="O43" s="29">
         <v>91.816816816816811</v>
       </c>
-      <c r="P43" s="42">
+      <c r="P43" s="29">
         <v>8.1831831831831838</v>
       </c>
-      <c r="Q43" s="42">
+      <c r="Q43" s="29">
         <v>95.018142235123378</v>
       </c>
-      <c r="R43" s="42">
+      <c r="R43" s="29">
         <v>4.9818577648766329</v>
       </c>
     </row>
-    <row r="44" spans="2:18" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="28">
+    <row r="44" spans="2:18" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="15">
         <v>0</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D44" s="30">
         <v>2014</v>
       </c>
-      <c r="E44" s="44">
+      <c r="E44" s="31">
         <v>86.906854130052722</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="31">
         <v>13.093145869947275</v>
       </c>
-      <c r="G44" s="44">
+      <c r="G44" s="31">
         <v>94.384842519685037</v>
       </c>
-      <c r="H44" s="44">
+      <c r="H44" s="31">
         <v>5.6151574803149602</v>
       </c>
-      <c r="I44" s="44">
+      <c r="I44" s="31">
         <v>95.050485052464865</v>
       </c>
-      <c r="J44" s="44">
+      <c r="J44" s="31">
         <v>4.9495149475351417</v>
       </c>
-      <c r="K44" s="44">
+      <c r="K44" s="31">
         <v>97.41315842313098</v>
       </c>
-      <c r="L44" s="44">
+      <c r="L44" s="31">
         <v>2.5868415768690181</v>
       </c>
-      <c r="M44" s="44">
+      <c r="M44" s="31">
         <v>95.415647921760396</v>
       </c>
-      <c r="N44" s="44">
+      <c r="N44" s="31">
         <v>4.5843520782396094</v>
       </c>
-      <c r="O44" s="44">
+      <c r="O44" s="31">
         <v>90.200308166409854</v>
       </c>
-      <c r="P44" s="44">
+      <c r="P44" s="31">
         <v>9.7996918335901384</v>
       </c>
-      <c r="Q44" s="44">
+      <c r="Q44" s="31">
         <v>94.696188870969706</v>
       </c>
-      <c r="R44" s="44">
+      <c r="R44" s="31">
         <v>5.3038111290303025</v>
       </c>
     </row>
@@ -3038,52 +3035,52 @@
       <c r="B45" s="4">
         <v>1</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="30">
         <v>2013</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="32">
         <v>87.665406427221171</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="32">
         <v>12.334593572778827</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="32">
         <v>92.291535391724437</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="32">
         <v>7.7084646082755723</v>
       </c>
-      <c r="I45" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="45">
+      <c r="I45" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="32">
         <v>97.336365112879648</v>
       </c>
-      <c r="L45" s="45">
+      <c r="L45" s="32">
         <v>2.663634887120351</v>
       </c>
-      <c r="M45" s="45">
+      <c r="M45" s="32">
         <v>96.851633215269587</v>
       </c>
-      <c r="N45" s="45">
+      <c r="N45" s="32">
         <v>3.1483667847304213</v>
       </c>
-      <c r="O45" s="45">
+      <c r="O45" s="32">
         <v>88.047138047138048</v>
       </c>
-      <c r="P45" s="45">
+      <c r="P45" s="32">
         <v>11.952861952861953</v>
       </c>
-      <c r="Q45" s="45">
+      <c r="Q45" s="32">
         <v>94.167852062588906</v>
       </c>
-      <c r="R45" s="45">
+      <c r="R45" s="32">
         <v>5.8321479374110954</v>
       </c>
     </row>
@@ -3091,52 +3088,52 @@
       <c r="B46" s="4">
         <v>2</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="30">
         <v>2013</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="32">
         <v>84.060650887573956</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="32">
         <v>15.939349112426035</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="32">
         <v>91.621275232297336</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="32">
         <v>8.3787247677026588</v>
       </c>
-      <c r="I46" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="45">
+      <c r="I46" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="32">
         <v>95.770179767359892</v>
       </c>
-      <c r="L46" s="45">
+      <c r="L46" s="32">
         <v>4.2298202326401126</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M46" s="32">
         <v>92.695805221472568</v>
       </c>
-      <c r="N46" s="45">
+      <c r="N46" s="32">
         <v>7.3041947785274273</v>
       </c>
-      <c r="O46" s="45">
+      <c r="O46" s="32">
         <v>86.771844660194176</v>
       </c>
-      <c r="P46" s="45">
+      <c r="P46" s="32">
         <v>13.228155339805825</v>
       </c>
-      <c r="Q46" s="45">
+      <c r="Q46" s="32">
         <v>92.291378515444904</v>
       </c>
-      <c r="R46" s="45">
+      <c r="R46" s="32">
         <v>7.7086214845550947</v>
       </c>
     </row>
@@ -3144,52 +3141,52 @@
       <c r="B47" s="4">
         <v>3</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="43">
+      <c r="D47" s="30">
         <v>2013</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="32">
         <v>91.190914671577644</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="32">
         <v>8.8090853284223449</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="32">
         <v>96.96693569382974</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="32">
         <v>3.0330643061702682</v>
       </c>
-      <c r="I47" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="45">
+      <c r="I47" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="32">
         <v>98.66909498458952</v>
       </c>
-      <c r="L47" s="45">
+      <c r="L47" s="32">
         <v>1.3309050154104791</v>
       </c>
-      <c r="M47" s="45">
+      <c r="M47" s="32">
         <v>98.303030303030297</v>
       </c>
-      <c r="N47" s="45">
+      <c r="N47" s="32">
         <v>1.6969696969696972</v>
       </c>
-      <c r="O47" s="45">
+      <c r="O47" s="32">
         <v>91.256830601092901</v>
       </c>
-      <c r="P47" s="45">
+      <c r="P47" s="32">
         <v>8.7431693989071047</v>
       </c>
-      <c r="Q47" s="45">
+      <c r="Q47" s="32">
         <v>96.519638083487564</v>
       </c>
-      <c r="R47" s="45">
+      <c r="R47" s="32">
         <v>3.4803619165124409</v>
       </c>
     </row>
@@ -3197,105 +3194,105 @@
       <c r="B48" s="4">
         <v>4</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="30">
         <v>2013</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="32">
         <v>90.400782013685244</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="32">
         <v>9.5992179863147609</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="32">
         <v>95.600074892342263</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="32">
         <v>4.3999251076577419</v>
       </c>
-      <c r="I48" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="45">
+      <c r="I48" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="32">
         <v>97.672680687520014</v>
       </c>
-      <c r="L48" s="45">
+      <c r="L48" s="32">
         <v>2.3273193124799829</v>
       </c>
-      <c r="M48" s="45">
+      <c r="M48" s="32">
         <v>98.19678557428459</v>
       </c>
-      <c r="N48" s="45">
+      <c r="N48" s="32">
         <v>1.8032144257154059</v>
       </c>
-      <c r="O48" s="45">
+      <c r="O48" s="32">
         <v>91.390728476821195</v>
       </c>
-      <c r="P48" s="45">
+      <c r="P48" s="32">
         <v>8.6092715231788084</v>
       </c>
-      <c r="Q48" s="45">
+      <c r="Q48" s="32">
         <v>95.384192061635829</v>
       </c>
-      <c r="R48" s="45">
+      <c r="R48" s="32">
         <v>4.6158079383641741</v>
       </c>
     </row>
-    <row r="49" spans="2:18" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="28">
+    <row r="49" spans="2:18" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="15">
         <v>0</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="30">
         <v>2013</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="32">
         <v>88.857727582809062</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="32">
         <v>11.142272417190934</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="32">
         <v>94.575543977934416</v>
       </c>
-      <c r="H49" s="45">
+      <c r="H49" s="32">
         <v>5.4244560220655842</v>
       </c>
-      <c r="I49" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="45">
+      <c r="I49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="32">
         <v>97.314984120873831</v>
       </c>
-      <c r="L49" s="45">
+      <c r="L49" s="32">
         <v>2.6850158791261669</v>
       </c>
-      <c r="M49" s="45">
+      <c r="M49" s="32">
         <v>95.828865537207804</v>
       </c>
-      <c r="N49" s="45">
+      <c r="N49" s="32">
         <v>4.1711344627921942</v>
       </c>
-      <c r="O49" s="45">
+      <c r="O49" s="32">
         <v>89.627179795550219</v>
       </c>
-      <c r="P49" s="45">
+      <c r="P49" s="32">
         <v>10.372820204449789</v>
       </c>
-      <c r="Q49" s="45">
+      <c r="Q49" s="32">
         <v>94.635642762053592</v>
       </c>
-      <c r="R49" s="45">
+      <c r="R49" s="32">
         <v>5.3643572379464031</v>
       </c>
     </row>
@@ -3303,52 +3300,52 @@
       <c r="B50" s="4">
         <v>1</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="28">
         <v>2012</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="29">
         <v>87.432600580671917</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="29">
         <v>12.56739941932808</v>
       </c>
-      <c r="G50" s="42">
+      <c r="G50" s="29">
         <v>92.855767379164263</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="29">
         <v>7.1442326208357398</v>
       </c>
-      <c r="I50" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J50" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="42">
+      <c r="I50" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K50" s="29">
         <v>97.165030091859364</v>
       </c>
-      <c r="L50" s="42">
+      <c r="L50" s="29">
         <v>2.8349699081406396</v>
       </c>
-      <c r="M50" s="42">
+      <c r="M50" s="29">
         <v>94.611457742484404</v>
       </c>
-      <c r="N50" s="42">
+      <c r="N50" s="29">
         <v>5.3885422575155983</v>
       </c>
-      <c r="O50" s="42">
+      <c r="O50" s="29">
         <v>87.220447284345042</v>
       </c>
-      <c r="P50" s="42">
+      <c r="P50" s="29">
         <v>12.779552715654951</v>
       </c>
-      <c r="Q50" s="42">
+      <c r="Q50" s="29">
         <v>93.695958790703386</v>
       </c>
-      <c r="R50" s="42">
+      <c r="R50" s="29">
         <v>6.3040412092966207</v>
       </c>
     </row>
@@ -3356,52 +3353,52 @@
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="28">
         <v>2012</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="29">
         <v>83.954840916866232</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="29">
         <v>16.045159083133768</v>
       </c>
-      <c r="G51" s="42">
+      <c r="G51" s="29">
         <v>91.018922852983991</v>
       </c>
-      <c r="H51" s="42">
+      <c r="H51" s="29">
         <v>8.9810771470160109</v>
       </c>
-      <c r="I51" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="42">
+      <c r="I51" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K51" s="29">
         <v>95.382870107770842</v>
       </c>
-      <c r="L51" s="42">
+      <c r="L51" s="29">
         <v>4.6171298922291548</v>
       </c>
-      <c r="M51" s="42">
+      <c r="M51" s="29">
         <v>91.507135398538111</v>
       </c>
-      <c r="N51" s="42">
+      <c r="N51" s="29">
         <v>8.4928646014618874</v>
       </c>
-      <c r="O51" s="42">
+      <c r="O51" s="29">
         <v>83.146067415730343</v>
       </c>
-      <c r="P51" s="42">
+      <c r="P51" s="29">
         <v>16.853932584269664</v>
       </c>
-      <c r="Q51" s="42">
+      <c r="Q51" s="29">
         <v>91.531611754229743</v>
       </c>
-      <c r="R51" s="42">
+      <c r="R51" s="29">
         <v>8.4683882457702584</v>
       </c>
     </row>
@@ -3409,52 +3406,52 @@
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="28">
         <v>2012</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="29">
         <v>90.391983495431774</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="29">
         <v>9.6080165045682282</v>
       </c>
-      <c r="G52" s="42">
+      <c r="G52" s="29">
         <v>96.638874413757165</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="29">
         <v>3.3611255862428351</v>
       </c>
-      <c r="I52" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="42">
+      <c r="I52" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J52" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="29">
         <v>98.426996504436687</v>
       </c>
-      <c r="L52" s="42">
+      <c r="L52" s="29">
         <v>1.5730034955633236</v>
       </c>
-      <c r="M52" s="42">
+      <c r="M52" s="29">
         <v>98.720292504570381</v>
       </c>
-      <c r="N52" s="42">
+      <c r="N52" s="29">
         <v>1.2797074954296161</v>
       </c>
-      <c r="O52" s="42">
+      <c r="O52" s="29">
         <v>89.905362776025228</v>
       </c>
-      <c r="P52" s="42">
+      <c r="P52" s="29">
         <v>10.094637223974763</v>
       </c>
-      <c r="Q52" s="42">
+      <c r="Q52" s="29">
         <v>96.078829744006498</v>
       </c>
-      <c r="R52" s="42">
+      <c r="R52" s="29">
         <v>3.9211702559934989</v>
       </c>
     </row>
@@ -3462,105 +3459,105 @@
       <c r="B53" s="4">
         <v>4</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="28">
         <v>2012</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="29">
         <v>90.007163323782237</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="29">
         <v>9.9928366762177649</v>
       </c>
-      <c r="G53" s="42">
+      <c r="G53" s="29">
         <v>95.456582131015324</v>
       </c>
-      <c r="H53" s="42">
+      <c r="H53" s="29">
         <v>4.543417868984676</v>
       </c>
-      <c r="I53" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="42">
+      <c r="I53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J53" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="29">
         <v>97.879487717824901</v>
       </c>
-      <c r="L53" s="42">
+      <c r="L53" s="29">
         <v>2.1205122821750999</v>
       </c>
-      <c r="M53" s="42">
+      <c r="M53" s="29">
         <v>98.545861297539147</v>
       </c>
-      <c r="N53" s="42">
+      <c r="N53" s="29">
         <v>1.4541387024608501</v>
       </c>
-      <c r="O53" s="42">
+      <c r="O53" s="29">
         <v>89.977728285077944</v>
       </c>
-      <c r="P53" s="42">
+      <c r="P53" s="29">
         <v>10.022271714922049</v>
       </c>
-      <c r="Q53" s="42">
+      <c r="Q53" s="29">
         <v>95.143517888722613</v>
       </c>
-      <c r="R53" s="42">
+      <c r="R53" s="29">
         <v>4.8564821112773773</v>
       </c>
     </row>
-    <row r="54" spans="2:18" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="28">
+    <row r="54" spans="2:18" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="15">
         <v>0</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="43">
+      <c r="D54" s="30">
         <v>2012</v>
       </c>
-      <c r="E54" s="44">
+      <c r="E54" s="31">
         <v>88.428481587589971</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F54" s="31">
         <v>11.571518412410034</v>
       </c>
-      <c r="G54" s="44">
+      <c r="G54" s="31">
         <v>94.326493624182788</v>
       </c>
-      <c r="H54" s="44">
+      <c r="H54" s="31">
         <v>5.6735063758172046</v>
       </c>
-      <c r="I54" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="44">
+      <c r="I54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K54" s="31">
         <v>97.180070420340883</v>
       </c>
-      <c r="L54" s="44">
+      <c r="L54" s="31">
         <v>2.8199295796591155</v>
       </c>
-      <c r="M54" s="44">
+      <c r="M54" s="31">
         <v>94.663606369244008</v>
       </c>
-      <c r="N54" s="44">
+      <c r="N54" s="31">
         <v>5.3363936307559889</v>
       </c>
-      <c r="O54" s="44">
+      <c r="O54" s="31">
         <v>87.618516452872285</v>
       </c>
-      <c r="P54" s="44">
+      <c r="P54" s="31">
         <v>12.38148354712772</v>
       </c>
-      <c r="Q54" s="44">
+      <c r="Q54" s="31">
         <v>94.161099033678965</v>
       </c>
-      <c r="R54" s="44">
+      <c r="R54" s="31">
         <v>5.8389009663210372</v>
       </c>
     </row>
@@ -3568,52 +3565,52 @@
       <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="43">
+      <c r="D55" s="30">
         <v>2011</v>
       </c>
-      <c r="E55" s="44">
+      <c r="E55" s="31">
         <v>87.360308285163782</v>
       </c>
-      <c r="F55" s="44">
+      <c r="F55" s="31">
         <v>12.639691714836223</v>
       </c>
-      <c r="G55" s="44">
+      <c r="G55" s="31">
         <v>89.2</v>
       </c>
-      <c r="H55" s="44">
+      <c r="H55" s="31">
         <v>6.8</v>
       </c>
-      <c r="I55" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="L55" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="M55" s="44">
+      <c r="I55" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="31">
         <v>94.8072383949646</v>
       </c>
-      <c r="N55" s="44">
+      <c r="N55" s="31">
         <v>5.1927616050354048</v>
       </c>
-      <c r="O55" s="44">
+      <c r="O55" s="31">
         <v>83.2</v>
       </c>
-      <c r="P55" s="44">
+      <c r="P55" s="31">
         <v>16.8</v>
       </c>
-      <c r="Q55" s="44">
+      <c r="Q55" s="31">
         <v>93.619019665394774</v>
       </c>
-      <c r="R55" s="44">
+      <c r="R55" s="31">
         <v>6.3809803346052245</v>
       </c>
     </row>
@@ -3621,52 +3618,52 @@
       <c r="B56" s="4">
         <v>2</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="30">
         <v>2011</v>
       </c>
-      <c r="E56" s="44">
+      <c r="E56" s="31">
         <v>84.688847812692543</v>
       </c>
-      <c r="F56" s="44">
+      <c r="F56" s="31">
         <v>15.311152187307457</v>
       </c>
-      <c r="G56" s="44">
+      <c r="G56" s="31">
         <v>91.473859133324808</v>
       </c>
-      <c r="H56" s="44">
+      <c r="H56" s="31">
         <v>8.5261408666751883</v>
       </c>
-      <c r="I56" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="44">
+      <c r="I56" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="31">
         <v>95.173766205469008</v>
       </c>
-      <c r="L56" s="44">
+      <c r="L56" s="31">
         <v>4.8262337945309941</v>
       </c>
-      <c r="M56" s="44">
+      <c r="M56" s="31">
         <v>89.962018448182306</v>
       </c>
-      <c r="N56" s="44">
+      <c r="N56" s="31">
         <v>10.037981551817689</v>
       </c>
-      <c r="O56" s="44">
+      <c r="O56" s="31">
         <v>81.226053639846739</v>
       </c>
-      <c r="P56" s="44">
+      <c r="P56" s="31">
         <v>18.773946360153257</v>
       </c>
-      <c r="Q56" s="44">
+      <c r="Q56" s="31">
         <v>91.406959152798791</v>
       </c>
-      <c r="R56" s="44">
+      <c r="R56" s="31">
         <v>8.5930408472012108</v>
       </c>
     </row>
@@ -3674,52 +3671,52 @@
       <c r="B57" s="4">
         <v>3</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="43">
+      <c r="D57" s="30">
         <v>2011</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="31">
         <v>90.789818945158757</v>
       </c>
-      <c r="F57" s="44">
+      <c r="F57" s="31">
         <v>9.2101810548412484</v>
       </c>
-      <c r="G57" s="44">
+      <c r="G57" s="31">
         <v>96.461481754515304</v>
       </c>
-      <c r="H57" s="44">
+      <c r="H57" s="31">
         <v>3.5385182454847035</v>
       </c>
-      <c r="I57" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J57" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="44">
+      <c r="I57" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K57" s="31">
         <v>98.211972013474991</v>
       </c>
-      <c r="L57" s="44">
+      <c r="L57" s="31">
         <v>1.7880279865250066</v>
       </c>
-      <c r="M57" s="44">
+      <c r="M57" s="31">
         <v>99.739583333333343</v>
       </c>
-      <c r="N57" s="44">
+      <c r="N57" s="31">
         <v>0.26041666666666663</v>
       </c>
-      <c r="O57" s="44">
+      <c r="O57" s="31">
         <v>87.878787878787875</v>
       </c>
-      <c r="P57" s="44">
+      <c r="P57" s="31">
         <v>12.121212121212121</v>
       </c>
-      <c r="Q57" s="44">
+      <c r="Q57" s="31">
         <v>95.844781875150645</v>
       </c>
-      <c r="R57" s="44">
+      <c r="R57" s="31">
         <v>4.1552181248493616</v>
       </c>
     </row>
@@ -3727,105 +3724,105 @@
       <c r="B58" s="4">
         <v>4</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="30">
         <v>2011</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="31">
         <v>89.929357647445372</v>
       </c>
-      <c r="F58" s="44">
+      <c r="F58" s="31">
         <v>10.070642352554625</v>
       </c>
-      <c r="G58" s="44">
+      <c r="G58" s="31">
         <v>95.459157787924909</v>
       </c>
-      <c r="H58" s="44">
+      <c r="H58" s="31">
         <v>4.5408422120750886</v>
       </c>
-      <c r="I58" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J58" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="44">
+      <c r="I58" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="31">
         <v>97.569513902780557</v>
       </c>
-      <c r="L58" s="44">
+      <c r="L58" s="31">
         <v>2.4304860972194442</v>
       </c>
-      <c r="M58" s="44">
+      <c r="M58" s="31">
         <v>98.557692307692307</v>
       </c>
-      <c r="N58" s="44">
+      <c r="N58" s="31">
         <v>1.4423076923076923</v>
       </c>
-      <c r="O58" s="44">
+      <c r="O58" s="31">
         <v>89.026162790697668</v>
       </c>
-      <c r="P58" s="44">
+      <c r="P58" s="31">
         <v>10.973837209302326</v>
       </c>
-      <c r="Q58" s="44">
+      <c r="Q58" s="31">
         <v>94.909410272257105</v>
       </c>
-      <c r="R58" s="44">
+      <c r="R58" s="31">
         <v>5.0905897277429011</v>
       </c>
     </row>
-    <row r="59" spans="2:18" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="28">
+    <row r="59" spans="2:18" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="15">
         <v>0</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="43">
+      <c r="D59" s="30">
         <v>2011</v>
       </c>
-      <c r="E59" s="44">
+      <c r="E59" s="31">
         <v>88.63333121545206</v>
       </c>
-      <c r="F59" s="44">
+      <c r="F59" s="31">
         <v>11.366668784547938</v>
       </c>
-      <c r="G59" s="44">
+      <c r="G59" s="31">
         <v>56.965070690269691</v>
       </c>
-      <c r="H59" s="44">
+      <c r="H59" s="31">
         <v>43.034929309730309</v>
       </c>
-      <c r="I59" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" s="44">
+      <c r="I59" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="31">
         <v>96.981435680443397</v>
       </c>
-      <c r="L59" s="44">
+      <c r="L59" s="31">
         <v>3.0185643195566016</v>
       </c>
-      <c r="M59" s="44">
+      <c r="M59" s="31">
         <v>94.489301574485268</v>
       </c>
-      <c r="N59" s="44">
+      <c r="N59" s="31">
         <v>5.5106984255147351</v>
       </c>
-      <c r="O59" s="44">
+      <c r="O59" s="31">
         <v>85.660781166399147</v>
       </c>
-      <c r="P59" s="44">
+      <c r="P59" s="31">
         <v>14.339218833600857</v>
       </c>
-      <c r="Q59" s="44">
+      <c r="Q59" s="31">
         <v>93.997250649152292</v>
       </c>
-      <c r="R59" s="44">
+      <c r="R59" s="31">
         <v>6.0027493508477168</v>
       </c>
     </row>
@@ -3833,52 +3830,52 @@
       <c r="B60" s="4">
         <v>1</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="41">
+      <c r="D60" s="28">
         <v>2010</v>
       </c>
-      <c r="E60" s="36">
+      <c r="E60" s="23">
         <v>86.239534037131421</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F60" s="23">
         <v>13.760465962868585</v>
       </c>
-      <c r="G60" s="36">
+      <c r="G60" s="23">
         <v>93.136738634368967</v>
       </c>
-      <c r="H60" s="36">
+      <c r="H60" s="23">
         <v>6.8632613656310335</v>
       </c>
-      <c r="I60" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J60" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="36">
+      <c r="I60" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K60" s="23">
         <v>97.029702970297024</v>
       </c>
-      <c r="L60" s="36">
+      <c r="L60" s="23">
         <v>2.9702970297029703</v>
       </c>
-      <c r="M60" s="36">
+      <c r="M60" s="23">
         <v>95.104333868378816</v>
       </c>
-      <c r="N60" s="36">
+      <c r="N60" s="23">
         <v>4.8956661316211871</v>
       </c>
-      <c r="O60" s="36">
+      <c r="O60" s="23">
         <v>83.228840125391841</v>
       </c>
-      <c r="P60" s="36">
+      <c r="P60" s="23">
         <v>16.771159874608148</v>
       </c>
-      <c r="Q60" s="36">
+      <c r="Q60" s="23">
         <v>93.407288194045293</v>
       </c>
-      <c r="R60" s="36">
+      <c r="R60" s="23">
         <v>6.592711805954707</v>
       </c>
     </row>
@@ -3886,52 +3883,52 @@
       <c r="B61" s="4">
         <v>2</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="41">
+      <c r="D61" s="28">
         <v>2010</v>
       </c>
-      <c r="E61" s="36">
+      <c r="E61" s="23">
         <v>83.760941744642309</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="23">
         <v>16.239058255357683</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="23">
         <v>90.865384615384613</v>
       </c>
-      <c r="H61" s="36">
+      <c r="H61" s="23">
         <v>9.1346153846153832</v>
       </c>
-      <c r="I61" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J61" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K61" s="36">
+      <c r="I61" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K61" s="23">
         <v>95.661811272957564</v>
       </c>
-      <c r="L61" s="36">
+      <c r="L61" s="23">
         <v>4.3381887270424313</v>
       </c>
-      <c r="M61" s="36">
+      <c r="M61" s="23">
         <v>91.787709497206706</v>
       </c>
-      <c r="N61" s="36">
+      <c r="N61" s="23">
         <v>8.2122905027932962</v>
       </c>
-      <c r="O61" s="36">
+      <c r="O61" s="23">
         <v>80.323193916349808</v>
       </c>
-      <c r="P61" s="36">
+      <c r="P61" s="23">
         <v>19.676806083650188</v>
       </c>
-      <c r="Q61" s="36">
+      <c r="Q61" s="23">
         <v>91.404594021715624</v>
       </c>
-      <c r="R61" s="36">
+      <c r="R61" s="23">
         <v>8.5954059782843792</v>
       </c>
     </row>
@@ -3939,52 +3936,52 @@
       <c r="B62" s="4">
         <v>3</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="41">
+      <c r="D62" s="28">
         <v>2010</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="23">
         <v>90.6642259414226</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="23">
         <v>9.3357740585774067</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G62" s="23">
         <v>96.662561576354676</v>
       </c>
-      <c r="H62" s="36">
+      <c r="H62" s="23">
         <v>3.3374384236453203</v>
       </c>
-      <c r="I62" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="36">
+      <c r="I62" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62" s="23">
         <v>98.307422266800401</v>
       </c>
-      <c r="L62" s="36">
+      <c r="L62" s="23">
         <v>1.6925777331995988</v>
       </c>
-      <c r="M62" s="36">
+      <c r="M62" s="23">
         <v>99.430199430199423</v>
       </c>
-      <c r="N62" s="36">
+      <c r="N62" s="23">
         <v>0.56980056980056981</v>
       </c>
-      <c r="O62" s="36">
+      <c r="O62" s="23">
         <v>91.290824261275276</v>
       </c>
-      <c r="P62" s="36">
+      <c r="P62" s="23">
         <v>8.7091757387247277</v>
       </c>
-      <c r="Q62" s="36">
+      <c r="Q62" s="23">
         <v>96.07439992349623</v>
       </c>
-      <c r="R62" s="36">
+      <c r="R62" s="23">
         <v>3.9256000765037777</v>
       </c>
     </row>
@@ -3992,105 +3989,105 @@
       <c r="B63" s="4">
         <v>4</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D63" s="41">
+      <c r="D63" s="28">
         <v>2010</v>
       </c>
-      <c r="E63" s="36">
+      <c r="E63" s="23">
         <v>90.694263363754885</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="23">
         <v>9.3057366362451113</v>
       </c>
-      <c r="G63" s="36">
+      <c r="G63" s="23">
         <v>95.899482129213013</v>
       </c>
-      <c r="H63" s="36">
+      <c r="H63" s="23">
         <v>4.1005178707869936</v>
       </c>
-      <c r="I63" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J63" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="36">
+      <c r="I63" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J63" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="23">
         <v>97.813688212927758</v>
       </c>
-      <c r="L63" s="36">
+      <c r="L63" s="23">
         <v>2.1863117870722433</v>
       </c>
-      <c r="M63" s="36">
+      <c r="M63" s="23">
         <v>98.354525056095738</v>
       </c>
-      <c r="N63" s="36">
+      <c r="N63" s="23">
         <v>1.6454749439042633</v>
       </c>
-      <c r="O63" s="36">
+      <c r="O63" s="23">
         <v>90.104166666666657</v>
       </c>
-      <c r="P63" s="36">
+      <c r="P63" s="23">
         <v>9.8958333333333321</v>
       </c>
-      <c r="Q63" s="36">
+      <c r="Q63" s="23">
         <v>95.375369584779534</v>
       </c>
-      <c r="R63" s="36">
+      <c r="R63" s="23">
         <v>4.6246304152204658</v>
       </c>
     </row>
-    <row r="64" spans="2:18" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="28">
+    <row r="64" spans="2:18" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="15">
         <v>0</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C64" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="43">
+      <c r="D64" s="30">
         <v>2010</v>
       </c>
-      <c r="E64" s="44">
+      <c r="E64" s="31">
         <v>88.489388264669174</v>
       </c>
-      <c r="F64" s="44">
+      <c r="F64" s="31">
         <v>11.510611735330837</v>
       </c>
-      <c r="G64" s="44">
+      <c r="G64" s="31">
         <v>94.471647926490149</v>
       </c>
-      <c r="H64" s="44">
+      <c r="H64" s="31">
         <v>5.5283520735098541</v>
       </c>
-      <c r="I64" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" s="44">
+      <c r="I64" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J64" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K64" s="31">
         <v>97.186073059360737</v>
       </c>
-      <c r="L64" s="44">
+      <c r="L64" s="31">
         <v>2.8139269406392695</v>
       </c>
-      <c r="M64" s="44">
+      <c r="M64" s="31">
         <v>95.088907705334464</v>
       </c>
-      <c r="N64" s="44">
+      <c r="N64" s="31">
         <v>4.9110922946655373</v>
       </c>
-      <c r="O64" s="44">
+      <c r="O64" s="31">
         <v>86.320369866739185</v>
       </c>
-      <c r="P64" s="44">
+      <c r="P64" s="31">
         <v>13.679630133260812</v>
       </c>
-      <c r="Q64" s="44">
+      <c r="Q64" s="31">
         <v>94.171484142849422</v>
       </c>
-      <c r="R64" s="44">
+      <c r="R64" s="31">
         <v>5.8285158571505757</v>
       </c>
     </row>
@@ -4098,52 +4095,52 @@
       <c r="B65" s="4">
         <v>1</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="41">
+      <c r="D65" s="28">
         <v>2005</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="29">
         <v>86.913463805706201</v>
       </c>
-      <c r="F65" s="42">
+      <c r="F65" s="29">
         <v>13.086536194293799</v>
       </c>
-      <c r="G65" s="42">
+      <c r="G65" s="29">
         <v>93.560314281312586</v>
       </c>
-      <c r="H65" s="42">
+      <c r="H65" s="29">
         <v>6.4396857186874126</v>
       </c>
-      <c r="I65" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J65" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="42">
+      <c r="I65" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J65" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="29">
         <v>96.894803548795949</v>
       </c>
-      <c r="L65" s="42">
+      <c r="L65" s="29">
         <v>3.1051964512040557</v>
       </c>
-      <c r="M65" s="42">
+      <c r="M65" s="29">
         <v>93.974820143884898</v>
       </c>
-      <c r="N65" s="42">
+      <c r="N65" s="29">
         <v>6.0251798561151082</v>
       </c>
-      <c r="O65" s="42">
+      <c r="O65" s="29">
         <v>82.465462274176403</v>
       </c>
-      <c r="P65" s="42">
+      <c r="P65" s="29">
         <v>17.534537725823593</v>
       </c>
-      <c r="Q65" s="42">
+      <c r="Q65" s="29">
         <v>92.663769178404991</v>
       </c>
-      <c r="R65" s="42">
+      <c r="R65" s="29">
         <v>7.3362308215950147</v>
       </c>
     </row>
@@ -4151,52 +4148,52 @@
       <c r="B66" s="4">
         <v>2</v>
       </c>
-      <c r="C66" s="27" t="s">
+      <c r="C66" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="41">
+      <c r="D66" s="28">
         <v>2005</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="29">
         <v>85.288440917864037</v>
       </c>
-      <c r="F66" s="42">
+      <c r="F66" s="29">
         <v>14.711559082135963</v>
       </c>
-      <c r="G66" s="42">
+      <c r="G66" s="29">
         <v>90.760604583130174</v>
       </c>
-      <c r="H66" s="42">
+      <c r="H66" s="29">
         <v>9.2393954168698187</v>
       </c>
-      <c r="I66" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J66" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="42">
+      <c r="I66" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J66" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K66" s="29">
         <v>94.035594035594045</v>
       </c>
-      <c r="L66" s="42">
+      <c r="L66" s="29">
         <v>5.9644059644059642</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M66" s="29">
         <v>91.464891041162232</v>
       </c>
-      <c r="N66" s="42">
+      <c r="N66" s="29">
         <v>8.5351089588377729</v>
       </c>
-      <c r="O66" s="42">
+      <c r="O66" s="29">
         <v>77.061469265367322</v>
       </c>
-      <c r="P66" s="42">
+      <c r="P66" s="29">
         <v>22.938530734632685</v>
       </c>
-      <c r="Q66" s="42">
+      <c r="Q66" s="29">
         <v>90.123712193305465</v>
       </c>
-      <c r="R66" s="42">
+      <c r="R66" s="29">
         <v>9.8762878066945259</v>
       </c>
     </row>
@@ -4204,52 +4201,52 @@
       <c r="B67" s="4">
         <v>3</v>
       </c>
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="41">
+      <c r="D67" s="28">
         <v>2005</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="29">
         <v>90.577507598784194</v>
       </c>
-      <c r="F67" s="42">
+      <c r="F67" s="29">
         <v>9.4224924012158056</v>
       </c>
-      <c r="G67" s="42">
+      <c r="G67" s="29">
         <v>96.638340414896277</v>
       </c>
-      <c r="H67" s="42">
+      <c r="H67" s="29">
         <v>3.3616595851037241</v>
       </c>
-      <c r="I67" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J67" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="42">
+      <c r="I67" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J67" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K67" s="29">
         <v>98.081991215226935</v>
       </c>
-      <c r="L67" s="42">
+      <c r="L67" s="29">
         <v>1.91800878477306</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="29">
         <v>100</v>
       </c>
-      <c r="N67" s="48">
+      <c r="N67" s="35">
         <v>0</v>
       </c>
-      <c r="O67" s="42">
+      <c r="O67" s="29">
         <v>85.654450261780099</v>
       </c>
-      <c r="P67" s="42">
+      <c r="P67" s="29">
         <v>14.345549738219896</v>
       </c>
-      <c r="Q67" s="42">
+      <c r="Q67" s="29">
         <v>95.095870206489678</v>
       </c>
-      <c r="R67" s="42">
+      <c r="R67" s="29">
         <v>4.9041297935103243</v>
       </c>
     </row>
@@ -4257,626 +4254,626 @@
       <c r="B68" s="4">
         <v>4</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="41">
+      <c r="D68" s="28">
         <v>2005</v>
       </c>
-      <c r="E68" s="42">
+      <c r="E68" s="29">
         <v>92.082011780697783</v>
       </c>
-      <c r="F68" s="42">
+      <c r="F68" s="29">
         <v>7.9179882193022202</v>
       </c>
-      <c r="G68" s="42">
+      <c r="G68" s="29">
         <v>96.033129904097649</v>
       </c>
-      <c r="H68" s="42">
+      <c r="H68" s="29">
         <v>3.9668700959023542</v>
       </c>
-      <c r="I68" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K68" s="42">
+      <c r="I68" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J68" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K68" s="29">
         <v>97.395491354782223</v>
       </c>
-      <c r="L68" s="42">
+      <c r="L68" s="29">
         <v>2.6045086452177721</v>
       </c>
-      <c r="M68" s="42">
+      <c r="M68" s="29">
         <v>96.677215189873422</v>
       </c>
-      <c r="N68" s="42">
+      <c r="N68" s="29">
         <v>3.3227848101265818</v>
       </c>
-      <c r="O68" s="42">
+      <c r="O68" s="29">
         <v>86.965699208443269</v>
       </c>
-      <c r="P68" s="42">
+      <c r="P68" s="29">
         <v>13.034300791556728</v>
       </c>
-      <c r="Q68" s="42">
+      <c r="Q68" s="29">
         <v>94.842767295597483</v>
       </c>
-      <c r="R68" s="42">
+      <c r="R68" s="29">
         <v>5.1572327044025164</v>
       </c>
     </row>
-    <row r="69" spans="2:18" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="28">
+    <row r="69" spans="2:18" s="21" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="15">
         <v>0</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="30">
         <v>2005</v>
       </c>
-      <c r="E69" s="44">
+      <c r="E69" s="31">
         <v>89.423365487674161</v>
       </c>
-      <c r="F69" s="44">
+      <c r="F69" s="31">
         <v>10.57663451232583</v>
       </c>
-      <c r="G69" s="44">
+      <c r="G69" s="31">
         <v>94.43907864313519</v>
       </c>
-      <c r="H69" s="44">
+      <c r="H69" s="31">
         <v>5.560921356864811</v>
       </c>
-      <c r="I69" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J69" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K69" s="44">
+      <c r="I69" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J69" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="31">
         <v>96.53222643482809</v>
       </c>
-      <c r="L69" s="44">
+      <c r="L69" s="31">
         <v>3.4677735651719179</v>
       </c>
-      <c r="M69" s="44">
+      <c r="M69" s="31">
         <v>94.244935543278089</v>
       </c>
-      <c r="N69" s="44">
+      <c r="N69" s="31">
         <v>5.7550644567219154</v>
       </c>
-      <c r="O69" s="44">
+      <c r="O69" s="31">
         <v>83.317073170731703</v>
       </c>
-      <c r="P69" s="44">
+      <c r="P69" s="31">
         <v>16.682926829268293</v>
       </c>
-      <c r="Q69" s="44">
+      <c r="Q69" s="31">
         <v>93.303402113636139</v>
       </c>
-      <c r="R69" s="44">
+      <c r="R69" s="31">
         <v>6.69659788636387</v>
       </c>
     </row>
     <row r="70" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="49"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="50"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="50"/>
-      <c r="O70" s="50"/>
-      <c r="P70" s="50"/>
-      <c r="Q70" s="50"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
     </row>
     <row r="71" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="52"/>
-      <c r="C71" s="53" t="s">
+      <c r="B71" s="39"/>
+      <c r="C71" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="50"/>
-      <c r="N71" s="50"/>
-      <c r="O71" s="50"/>
-      <c r="P71" s="50"/>
-      <c r="Q71" s="50"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
     </row>
     <row r="72" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="54" t="s">
+      <c r="C72" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="50"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="50"/>
-      <c r="N72" s="50"/>
-      <c r="O72" s="50"/>
-      <c r="P72" s="50"/>
-      <c r="Q72" s="50"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
     </row>
     <row r="73" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="55"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="55"/>
-      <c r="K73" s="50"/>
-      <c r="L73" s="50"/>
-      <c r="M73" s="50"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="50"/>
-      <c r="P73" s="50"/>
-      <c r="Q73" s="50"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
     </row>
     <row r="74" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="57" t="s">
+      <c r="C74" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="50"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="50"/>
-      <c r="O74" s="50"/>
-      <c r="P74" s="50"/>
-      <c r="Q74" s="50"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
     </row>
     <row r="75" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="76" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="77" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11" t="s">
+      <c r="F78" s="70"/>
+      <c r="G78" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="12" t="s">
+      <c r="H78" s="70"/>
+      <c r="I78" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="J78" s="12"/>
-      <c r="K78" s="11" t="s">
+      <c r="J78" s="69"/>
+      <c r="K78" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11" t="s">
+      <c r="L78" s="70"/>
+      <c r="M78" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11" t="s">
+      <c r="N78" s="70"/>
+      <c r="O78" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11" t="s">
+      <c r="P78" s="70"/>
+      <c r="Q78" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="R78" s="13"/>
+      <c r="R78" s="71"/>
     </row>
     <row r="79" spans="2:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="14"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="17" t="s">
+      <c r="B79" s="74"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="18" t="s">
+      <c r="F79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="17" t="s">
+      <c r="G79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H79" s="18" t="s">
+      <c r="H79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="17" t="s">
+      <c r="I79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J79" s="18" t="s">
+      <c r="J79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K79" s="17" t="s">
+      <c r="K79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="18" t="s">
+      <c r="L79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M79" s="17" t="s">
+      <c r="M79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="18" t="s">
+      <c r="N79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O79" s="17" t="s">
+      <c r="O79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P79" s="18" t="s">
+      <c r="P79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q79" s="17" t="s">
+      <c r="Q79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R79" s="19" t="s">
+      <c r="R79" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="80" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="20"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="13" t="s">
+      <c r="B80" s="75"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="23"/>
+      <c r="F80" s="72"/>
+      <c r="G80" s="72"/>
+      <c r="H80" s="72"/>
+      <c r="I80" s="72"/>
+      <c r="J80" s="72"/>
+      <c r="K80" s="72"/>
+      <c r="L80" s="72"/>
+      <c r="M80" s="72"/>
+      <c r="N80" s="72"/>
+      <c r="O80" s="72"/>
+      <c r="P80" s="72"/>
+      <c r="Q80" s="72"/>
+      <c r="R80" s="72"/>
     </row>
     <row r="81" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="C81" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="25">
+      <c r="D81" s="12">
         <v>3</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E81" s="12">
         <v>4</v>
       </c>
-      <c r="F81" s="25">
+      <c r="F81" s="12">
         <v>5</v>
       </c>
-      <c r="G81" s="25">
+      <c r="G81" s="12">
         <v>6</v>
       </c>
-      <c r="H81" s="25">
+      <c r="H81" s="12">
         <v>7</v>
       </c>
-      <c r="I81" s="25">
+      <c r="I81" s="12">
         <v>8</v>
       </c>
-      <c r="J81" s="25">
+      <c r="J81" s="12">
         <v>9</v>
       </c>
-      <c r="K81" s="25">
+      <c r="K81" s="12">
         <v>10</v>
       </c>
-      <c r="L81" s="25">
+      <c r="L81" s="12">
         <v>11</v>
       </c>
-      <c r="M81" s="25">
+      <c r="M81" s="12">
         <v>12</v>
       </c>
-      <c r="N81" s="25">
+      <c r="N81" s="12">
         <v>13</v>
       </c>
-      <c r="O81" s="25">
+      <c r="O81" s="12">
         <v>14</v>
       </c>
-      <c r="P81" s="25">
+      <c r="P81" s="12">
         <v>15</v>
       </c>
-      <c r="Q81" s="25">
+      <c r="Q81" s="12">
         <v>16</v>
       </c>
-      <c r="R81" s="26">
+      <c r="R81" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="80">
+    <row r="82" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="4">
         <v>1</v>
       </c>
-      <c r="C82" s="81" t="s">
+      <c r="C82" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="30">
+      <c r="D82" s="17">
         <v>2020</v>
       </c>
-      <c r="E82" s="31">
+      <c r="E82" s="46">
         <v>733</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F82" s="46">
         <v>340</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G82" s="46">
         <v>2073</v>
       </c>
-      <c r="H82" s="31">
+      <c r="H82" s="46">
         <v>277</v>
       </c>
-      <c r="I82" s="31">
+      <c r="I82" s="46">
         <v>1361</v>
       </c>
-      <c r="J82" s="31">
+      <c r="J82" s="46">
         <v>208</v>
       </c>
-      <c r="K82" s="31">
+      <c r="K82" s="46">
         <v>5136</v>
       </c>
-      <c r="L82" s="31">
+      <c r="L82" s="46">
         <v>333</v>
       </c>
-      <c r="M82" s="31">
+      <c r="M82" s="46">
         <v>3326</v>
       </c>
-      <c r="N82" s="31">
+      <c r="N82" s="46">
         <v>277</v>
       </c>
-      <c r="O82" s="31">
+      <c r="O82" s="46">
         <v>251</v>
       </c>
-      <c r="P82" s="31">
+      <c r="P82" s="46">
         <v>31</v>
       </c>
-      <c r="Q82" s="31">
+      <c r="Q82" s="46">
         <v>12880</v>
       </c>
-      <c r="R82" s="31">
+      <c r="R82" s="46">
         <v>1466</v>
       </c>
     </row>
-    <row r="83" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="80">
+    <row r="83" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
         <v>2</v>
       </c>
-      <c r="C83" s="81" t="s">
+      <c r="C83" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="30">
+      <c r="D83" s="17">
         <v>2020</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E83" s="46">
         <v>334</v>
       </c>
-      <c r="F83" s="31">
+      <c r="F83" s="46">
         <v>192</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G83" s="46">
         <v>1555</v>
       </c>
-      <c r="H83" s="31">
+      <c r="H83" s="46">
         <v>300</v>
       </c>
-      <c r="I83" s="31">
+      <c r="I83" s="46">
         <v>2500</v>
       </c>
-      <c r="J83" s="31">
+      <c r="J83" s="46">
         <v>589</v>
       </c>
-      <c r="K83" s="31">
+      <c r="K83" s="46">
         <v>6832</v>
       </c>
-      <c r="L83" s="31">
+      <c r="L83" s="46">
         <v>388</v>
       </c>
-      <c r="M83" s="31">
+      <c r="M83" s="46">
         <v>6108</v>
       </c>
-      <c r="N83" s="31">
+      <c r="N83" s="46">
         <v>881</v>
       </c>
-      <c r="O83" s="31">
+      <c r="O83" s="46">
         <v>281</v>
       </c>
-      <c r="P83" s="31">
+      <c r="P83" s="46">
         <v>45</v>
       </c>
-      <c r="Q83" s="31">
+      <c r="Q83" s="46">
         <v>17610</v>
       </c>
-      <c r="R83" s="31">
+      <c r="R83" s="46">
         <v>2395</v>
       </c>
     </row>
-    <row r="84" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="80">
+    <row r="84" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
         <v>3</v>
       </c>
-      <c r="C84" s="81" t="s">
+      <c r="C84" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="30">
+      <c r="D84" s="17">
         <v>2020</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="46">
         <v>515</v>
       </c>
-      <c r="F84" s="31">
+      <c r="F84" s="46">
         <v>141</v>
       </c>
-      <c r="G84" s="31">
+      <c r="G84" s="46">
         <v>1287</v>
       </c>
-      <c r="H84" s="31">
+      <c r="H84" s="46">
         <v>145</v>
       </c>
-      <c r="I84" s="31">
+      <c r="I84" s="46">
         <v>4606</v>
       </c>
-      <c r="J84" s="31">
+      <c r="J84" s="46">
         <v>619</v>
       </c>
-      <c r="K84" s="31">
+      <c r="K84" s="46">
         <v>5678</v>
       </c>
-      <c r="L84" s="31">
+      <c r="L84" s="46">
         <v>213</v>
       </c>
-      <c r="M84" s="31">
+      <c r="M84" s="46">
         <v>3298</v>
       </c>
-      <c r="N84" s="31">
+      <c r="N84" s="46">
         <v>263</v>
       </c>
-      <c r="O84" s="31">
+      <c r="O84" s="46">
         <v>178</v>
       </c>
-      <c r="P84" s="31">
+      <c r="P84" s="46">
         <v>6</v>
       </c>
-      <c r="Q84" s="31">
+      <c r="Q84" s="46">
         <v>15562</v>
       </c>
-      <c r="R84" s="31">
+      <c r="R84" s="46">
         <v>1387</v>
       </c>
     </row>
-    <row r="85" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="80">
+    <row r="85" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="4">
         <v>4</v>
       </c>
-      <c r="C85" s="81" t="s">
+      <c r="C85" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="30">
+      <c r="D85" s="17">
         <v>2020</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="46">
         <v>767</v>
       </c>
-      <c r="F85" s="31">
+      <c r="F85" s="46">
         <v>296</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G85" s="46">
         <v>2063</v>
       </c>
-      <c r="H85" s="31">
+      <c r="H85" s="46">
         <v>242</v>
       </c>
-      <c r="I85" s="31">
+      <c r="I85" s="46">
         <v>7108</v>
       </c>
-      <c r="J85" s="31">
+      <c r="J85" s="46">
         <v>1368</v>
       </c>
-      <c r="K85" s="31">
+      <c r="K85" s="46">
         <v>7721</v>
       </c>
-      <c r="L85" s="31">
+      <c r="L85" s="46">
         <v>382</v>
       </c>
-      <c r="M85" s="31">
+      <c r="M85" s="46">
         <v>3919</v>
       </c>
-      <c r="N85" s="31">
+      <c r="N85" s="46">
         <v>293</v>
       </c>
-      <c r="O85" s="31">
+      <c r="O85" s="46">
         <v>528</v>
       </c>
-      <c r="P85" s="31">
+      <c r="P85" s="46">
         <v>66</v>
       </c>
-      <c r="Q85" s="31">
+      <c r="Q85" s="46">
         <v>22106</v>
       </c>
-      <c r="R85" s="31">
+      <c r="R85" s="46">
         <v>2647</v>
       </c>
     </row>
-    <row r="86" spans="2:18" s="82" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="83">
+    <row r="86" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="45">
         <v>0</v>
       </c>
-      <c r="C86" s="84" t="s">
+      <c r="C86" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="30">
+      <c r="D86" s="47">
         <v>2020</v>
       </c>
-      <c r="E86" s="31">
+      <c r="E86" s="48">
         <v>2349</v>
       </c>
-      <c r="F86" s="31">
+      <c r="F86" s="48">
         <v>969</v>
       </c>
-      <c r="G86" s="31">
+      <c r="G86" s="48">
         <v>6978</v>
       </c>
-      <c r="H86" s="31">
+      <c r="H86" s="48">
         <v>964</v>
       </c>
-      <c r="I86" s="31">
+      <c r="I86" s="48">
         <v>15575</v>
       </c>
-      <c r="J86" s="31">
+      <c r="J86" s="48">
         <v>2784</v>
       </c>
-      <c r="K86" s="31">
+      <c r="K86" s="48">
         <v>25367</v>
       </c>
-      <c r="L86" s="31">
+      <c r="L86" s="48">
         <v>1316</v>
       </c>
-      <c r="M86" s="31">
+      <c r="M86" s="48">
         <v>16651</v>
       </c>
-      <c r="N86" s="31">
+      <c r="N86" s="48">
         <v>1714</v>
       </c>
-      <c r="O86" s="31">
+      <c r="O86" s="48">
         <v>1238</v>
       </c>
-      <c r="P86" s="31">
+      <c r="P86" s="48">
         <v>148</v>
       </c>
-      <c r="Q86" s="31">
+      <c r="Q86" s="48">
         <v>68158</v>
       </c>
-      <c r="R86" s="31">
+      <c r="R86" s="48">
         <v>7895</v>
       </c>
     </row>
@@ -4884,52 +4881,52 @@
       <c r="B87" s="4">
         <v>1</v>
       </c>
-      <c r="C87" s="27" t="s">
+      <c r="C87" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="30">
+      <c r="D87" s="17">
         <v>2019</v>
       </c>
-      <c r="E87" s="62">
+      <c r="E87" s="46">
         <v>850</v>
       </c>
-      <c r="F87" s="62">
+      <c r="F87" s="46">
         <v>356</v>
       </c>
-      <c r="G87" s="62">
+      <c r="G87" s="46">
         <v>2115</v>
       </c>
-      <c r="H87" s="62">
+      <c r="H87" s="46">
         <v>294</v>
       </c>
-      <c r="I87" s="62">
+      <c r="I87" s="46">
         <v>1426</v>
       </c>
-      <c r="J87" s="62">
+      <c r="J87" s="46">
         <v>195</v>
       </c>
-      <c r="K87" s="62">
+      <c r="K87" s="46">
         <v>5167</v>
       </c>
-      <c r="L87" s="62">
+      <c r="L87" s="46">
         <v>259</v>
       </c>
-      <c r="M87" s="62">
+      <c r="M87" s="46">
         <v>3468</v>
       </c>
-      <c r="N87" s="62">
+      <c r="N87" s="46">
         <v>222</v>
       </c>
-      <c r="O87" s="62">
+      <c r="O87" s="46">
         <v>385</v>
       </c>
-      <c r="P87" s="62">
+      <c r="P87" s="46">
         <v>44</v>
       </c>
-      <c r="Q87" s="62">
+      <c r="Q87" s="46">
         <v>13411</v>
       </c>
-      <c r="R87" s="62">
+      <c r="R87" s="46">
         <v>1370</v>
       </c>
     </row>
@@ -4937,52 +4934,52 @@
       <c r="B88" s="4">
         <v>2</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C88" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="30">
+      <c r="D88" s="17">
         <v>2019</v>
       </c>
-      <c r="E88" s="62">
+      <c r="E88" s="46">
         <v>392</v>
       </c>
-      <c r="F88" s="62">
+      <c r="F88" s="46">
         <v>215</v>
       </c>
-      <c r="G88" s="62">
+      <c r="G88" s="46">
         <v>1708</v>
       </c>
-      <c r="H88" s="62">
+      <c r="H88" s="46">
         <v>317</v>
       </c>
-      <c r="I88" s="62">
+      <c r="I88" s="46">
         <v>2379</v>
       </c>
-      <c r="J88" s="62">
+      <c r="J88" s="46">
         <v>588</v>
       </c>
-      <c r="K88" s="62">
+      <c r="K88" s="46">
         <v>7030</v>
       </c>
-      <c r="L88" s="62">
+      <c r="L88" s="46">
         <v>356</v>
       </c>
-      <c r="M88" s="62">
+      <c r="M88" s="46">
         <v>6204</v>
       </c>
-      <c r="N88" s="62">
+      <c r="N88" s="46">
         <v>753</v>
       </c>
-      <c r="O88" s="62">
+      <c r="O88" s="46">
         <v>512</v>
       </c>
-      <c r="P88" s="62">
+      <c r="P88" s="46">
         <v>36</v>
       </c>
-      <c r="Q88" s="62">
+      <c r="Q88" s="46">
         <v>18225</v>
       </c>
-      <c r="R88" s="62">
+      <c r="R88" s="46">
         <v>2265</v>
       </c>
     </row>
@@ -4990,52 +4987,52 @@
       <c r="B89" s="4">
         <v>3</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="30">
+      <c r="D89" s="17">
         <v>2019</v>
       </c>
-      <c r="E89" s="62">
+      <c r="E89" s="46">
         <v>540</v>
       </c>
-      <c r="F89" s="62">
+      <c r="F89" s="46">
         <v>131</v>
       </c>
-      <c r="G89" s="62">
+      <c r="G89" s="46">
         <v>1341</v>
       </c>
-      <c r="H89" s="62">
+      <c r="H89" s="46">
         <v>132</v>
       </c>
-      <c r="I89" s="62">
+      <c r="I89" s="46">
         <v>4863</v>
       </c>
-      <c r="J89" s="62">
+      <c r="J89" s="46">
         <v>566</v>
       </c>
-      <c r="K89" s="62">
+      <c r="K89" s="46">
         <v>5766</v>
       </c>
-      <c r="L89" s="62">
+      <c r="L89" s="46">
         <v>168</v>
       </c>
-      <c r="M89" s="62">
+      <c r="M89" s="46">
         <v>3360</v>
       </c>
-      <c r="N89" s="62">
+      <c r="N89" s="46">
         <v>220</v>
       </c>
-      <c r="O89" s="62">
+      <c r="O89" s="46">
         <v>325</v>
       </c>
-      <c r="P89" s="62">
+      <c r="P89" s="46">
         <v>29</v>
       </c>
-      <c r="Q89" s="62">
+      <c r="Q89" s="46">
         <v>16195</v>
       </c>
-      <c r="R89" s="62">
+      <c r="R89" s="46">
         <v>1246</v>
       </c>
     </row>
@@ -5043,105 +5040,105 @@
       <c r="B90" s="4">
         <v>4</v>
       </c>
-      <c r="C90" s="27" t="s">
+      <c r="C90" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="30">
+      <c r="D90" s="17">
         <v>2019</v>
       </c>
-      <c r="E90" s="62">
+      <c r="E90" s="46">
         <v>848</v>
       </c>
-      <c r="F90" s="62">
+      <c r="F90" s="46">
         <v>288</v>
       </c>
-      <c r="G90" s="62">
+      <c r="G90" s="46">
         <v>2325</v>
       </c>
-      <c r="H90" s="62">
+      <c r="H90" s="46">
         <v>228</v>
       </c>
-      <c r="I90" s="62">
+      <c r="I90" s="46">
         <v>7919</v>
       </c>
-      <c r="J90" s="62">
+      <c r="J90" s="46">
         <v>283</v>
       </c>
-      <c r="K90" s="62">
+      <c r="K90" s="46">
         <v>7919</v>
       </c>
-      <c r="L90" s="62">
+      <c r="L90" s="46">
         <v>283</v>
       </c>
-      <c r="M90" s="62">
+      <c r="M90" s="46">
         <v>3891</v>
       </c>
-      <c r="N90" s="62">
+      <c r="N90" s="46">
         <v>258</v>
       </c>
-      <c r="O90" s="62">
+      <c r="O90" s="46">
         <v>979</v>
       </c>
-      <c r="P90" s="62">
+      <c r="P90" s="46">
         <v>78</v>
       </c>
-      <c r="Q90" s="62">
+      <c r="Q90" s="46">
         <v>23492</v>
       </c>
-      <c r="R90" s="62">
+      <c r="R90" s="46">
         <v>2415</v>
       </c>
     </row>
-    <row r="91" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="61">
+    <row r="91" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="45">
         <v>0</v>
       </c>
-      <c r="C91" s="29" t="s">
+      <c r="C91" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D91" s="63">
+      <c r="D91" s="47">
         <v>2019</v>
       </c>
-      <c r="E91" s="64">
+      <c r="E91" s="48">
         <v>2630</v>
       </c>
-      <c r="F91" s="64">
+      <c r="F91" s="48">
         <v>990</v>
       </c>
-      <c r="G91" s="64">
+      <c r="G91" s="48">
         <v>7489</v>
       </c>
-      <c r="H91" s="64">
+      <c r="H91" s="48">
         <v>971</v>
       </c>
-      <c r="I91" s="64">
+      <c r="I91" s="48">
         <v>16198</v>
       </c>
-      <c r="J91" s="64">
+      <c r="J91" s="48">
         <v>2629</v>
       </c>
-      <c r="K91" s="64">
+      <c r="K91" s="48">
         <v>25882</v>
       </c>
-      <c r="L91" s="64">
+      <c r="L91" s="48">
         <v>1066</v>
       </c>
-      <c r="M91" s="64">
+      <c r="M91" s="48">
         <v>16923</v>
       </c>
-      <c r="N91" s="64">
+      <c r="N91" s="48">
         <v>1453</v>
       </c>
-      <c r="O91" s="64">
+      <c r="O91" s="48">
         <v>2201</v>
       </c>
-      <c r="P91" s="64">
+      <c r="P91" s="48">
         <v>187</v>
       </c>
-      <c r="Q91" s="64">
+      <c r="Q91" s="48">
         <v>71323</v>
       </c>
-      <c r="R91" s="64">
+      <c r="R91" s="48">
         <v>7296</v>
       </c>
     </row>
@@ -5149,52 +5146,52 @@
       <c r="B92" s="4">
         <v>1</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C92" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="30">
+      <c r="D92" s="17">
         <v>2018</v>
       </c>
-      <c r="E92" s="62">
+      <c r="E92" s="46">
         <v>926</v>
       </c>
-      <c r="F92" s="62">
+      <c r="F92" s="46">
         <v>327</v>
       </c>
-      <c r="G92" s="62">
+      <c r="G92" s="46">
         <v>2369</v>
       </c>
-      <c r="H92" s="62">
+      <c r="H92" s="46">
         <v>247</v>
       </c>
-      <c r="I92" s="62">
+      <c r="I92" s="46">
         <v>1402</v>
       </c>
-      <c r="J92" s="62">
+      <c r="J92" s="46">
         <v>198</v>
       </c>
-      <c r="K92" s="62">
+      <c r="K92" s="46">
         <v>5496</v>
       </c>
-      <c r="L92" s="62">
+      <c r="L92" s="46">
         <v>229</v>
       </c>
-      <c r="M92" s="62">
+      <c r="M92" s="46">
         <v>2866</v>
       </c>
-      <c r="N92" s="62">
+      <c r="N92" s="46">
         <v>216</v>
       </c>
-      <c r="O92" s="62">
+      <c r="O92" s="46">
         <v>311</v>
       </c>
-      <c r="P92" s="62">
+      <c r="P92" s="46">
         <v>40</v>
       </c>
-      <c r="Q92" s="62">
+      <c r="Q92" s="46">
         <v>13370</v>
       </c>
-      <c r="R92" s="62">
+      <c r="R92" s="46">
         <v>1257</v>
       </c>
     </row>
@@ -5202,52 +5199,52 @@
       <c r="B93" s="4">
         <v>2</v>
       </c>
-      <c r="C93" s="27" t="s">
+      <c r="C93" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="30">
+      <c r="D93" s="17">
         <v>2018</v>
       </c>
-      <c r="E93" s="62">
+      <c r="E93" s="46">
         <v>877</v>
       </c>
-      <c r="F93" s="62">
+      <c r="F93" s="46">
         <v>388</v>
       </c>
-      <c r="G93" s="62">
+      <c r="G93" s="46">
         <v>2956</v>
       </c>
-      <c r="H93" s="62">
+      <c r="H93" s="46">
         <v>471</v>
       </c>
-      <c r="I93" s="62">
+      <c r="I93" s="46">
         <v>2437</v>
       </c>
-      <c r="J93" s="62">
+      <c r="J93" s="46">
         <v>406</v>
       </c>
-      <c r="K93" s="62">
+      <c r="K93" s="46">
         <v>7927</v>
       </c>
-      <c r="L93" s="62">
+      <c r="L93" s="46">
         <v>346</v>
       </c>
-      <c r="M93" s="62">
+      <c r="M93" s="46">
         <v>3885</v>
       </c>
-      <c r="N93" s="62">
+      <c r="N93" s="46">
         <v>435</v>
       </c>
-      <c r="O93" s="62">
+      <c r="O93" s="46">
         <v>498</v>
       </c>
-      <c r="P93" s="62">
+      <c r="P93" s="46">
         <v>43</v>
       </c>
-      <c r="Q93" s="62">
+      <c r="Q93" s="46">
         <v>18580</v>
       </c>
-      <c r="R93" s="62">
+      <c r="R93" s="46">
         <v>2089</v>
       </c>
     </row>
@@ -5255,52 +5252,52 @@
       <c r="B94" s="4">
         <v>3</v>
       </c>
-      <c r="C94" s="27" t="s">
+      <c r="C94" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D94" s="30">
+      <c r="D94" s="17">
         <v>2018</v>
       </c>
-      <c r="E94" s="62">
+      <c r="E94" s="46">
         <v>838</v>
       </c>
-      <c r="F94" s="62">
+      <c r="F94" s="46">
         <v>165</v>
       </c>
-      <c r="G94" s="62">
+      <c r="G94" s="46">
         <v>2107</v>
       </c>
-      <c r="H94" s="62">
+      <c r="H94" s="46">
         <v>146</v>
       </c>
-      <c r="I94" s="62">
+      <c r="I94" s="46">
         <v>4997</v>
       </c>
-      <c r="J94" s="62">
+      <c r="J94" s="46">
         <v>546</v>
       </c>
-      <c r="K94" s="62">
+      <c r="K94" s="46">
         <v>6490</v>
       </c>
-      <c r="L94" s="62">
+      <c r="L94" s="46">
         <v>179</v>
       </c>
-      <c r="M94" s="62">
+      <c r="M94" s="46">
         <v>1892</v>
       </c>
-      <c r="N94" s="62">
+      <c r="N94" s="46">
         <v>123</v>
       </c>
-      <c r="O94" s="62">
+      <c r="O94" s="46">
         <v>292</v>
       </c>
-      <c r="P94" s="62">
+      <c r="P94" s="46">
         <v>29</v>
       </c>
-      <c r="Q94" s="62">
+      <c r="Q94" s="46">
         <v>16616</v>
       </c>
-      <c r="R94" s="62">
+      <c r="R94" s="46">
         <v>1188</v>
       </c>
     </row>
@@ -5308,105 +5305,105 @@
       <c r="B95" s="4">
         <v>4</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D95" s="30">
+      <c r="D95" s="17">
         <v>2018</v>
       </c>
-      <c r="E95" s="62">
+      <c r="E95" s="46">
         <v>1230</v>
       </c>
-      <c r="F95" s="62">
+      <c r="F95" s="46">
         <v>325</v>
       </c>
-      <c r="G95" s="62">
+      <c r="G95" s="46">
         <v>2932</v>
       </c>
-      <c r="H95" s="62">
+      <c r="H95" s="46">
         <v>260</v>
       </c>
-      <c r="I95" s="62">
+      <c r="I95" s="46">
         <v>7673</v>
       </c>
-      <c r="J95" s="62">
+      <c r="J95" s="46">
         <v>1064</v>
       </c>
-      <c r="K95" s="62">
+      <c r="K95" s="46">
         <v>8930</v>
       </c>
-      <c r="L95" s="62">
+      <c r="L95" s="46">
         <v>293</v>
       </c>
-      <c r="M95" s="62">
+      <c r="M95" s="46">
         <v>2840</v>
       </c>
-      <c r="N95" s="62">
+      <c r="N95" s="46">
         <v>167</v>
       </c>
-      <c r="O95" s="62">
+      <c r="O95" s="46">
         <v>754</v>
       </c>
-      <c r="P95" s="62">
+      <c r="P95" s="46">
         <v>74</v>
       </c>
-      <c r="Q95" s="62">
+      <c r="Q95" s="46">
         <v>24359</v>
       </c>
-      <c r="R95" s="62">
+      <c r="R95" s="46">
         <v>2183</v>
       </c>
     </row>
-    <row r="96" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="61">
+    <row r="96" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="45">
         <v>0</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="63">
+      <c r="D96" s="47">
         <v>2018</v>
       </c>
-      <c r="E96" s="64">
+      <c r="E96" s="48">
         <v>3871</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="48">
         <v>1205</v>
       </c>
-      <c r="G96" s="64">
+      <c r="G96" s="48">
         <v>10364</v>
       </c>
-      <c r="H96" s="64">
+      <c r="H96" s="48">
         <v>1124</v>
       </c>
-      <c r="I96" s="64">
+      <c r="I96" s="48">
         <v>16509</v>
       </c>
-      <c r="J96" s="64">
+      <c r="J96" s="48">
         <v>2214</v>
       </c>
-      <c r="K96" s="64">
+      <c r="K96" s="48">
         <v>28843</v>
       </c>
-      <c r="L96" s="64">
+      <c r="L96" s="48">
         <v>1047</v>
       </c>
-      <c r="M96" s="64">
+      <c r="M96" s="48">
         <v>11483</v>
       </c>
-      <c r="N96" s="64">
+      <c r="N96" s="48">
         <v>941</v>
       </c>
-      <c r="O96" s="64">
+      <c r="O96" s="48">
         <v>1855</v>
       </c>
-      <c r="P96" s="64">
+      <c r="P96" s="48">
         <v>186</v>
       </c>
-      <c r="Q96" s="64">
+      <c r="Q96" s="48">
         <v>72925</v>
       </c>
-      <c r="R96" s="64">
+      <c r="R96" s="48">
         <v>6717</v>
       </c>
     </row>
@@ -5414,52 +5411,52 @@
       <c r="B97" s="4">
         <v>1</v>
       </c>
-      <c r="C97" s="27" t="s">
+      <c r="C97" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D97" s="30">
+      <c r="D97" s="17">
         <v>2017</v>
       </c>
-      <c r="E97" s="62">
+      <c r="E97" s="46">
         <v>1003</v>
       </c>
-      <c r="F97" s="62">
+      <c r="F97" s="46">
         <v>295</v>
       </c>
-      <c r="G97" s="62">
+      <c r="G97" s="46">
         <v>2487</v>
       </c>
-      <c r="H97" s="62">
+      <c r="H97" s="46">
         <v>257</v>
       </c>
-      <c r="I97" s="62">
+      <c r="I97" s="46">
         <v>1540</v>
       </c>
-      <c r="J97" s="62">
+      <c r="J97" s="46">
         <v>170</v>
       </c>
-      <c r="K97" s="62">
+      <c r="K97" s="46">
         <v>5394</v>
       </c>
-      <c r="L97" s="62">
+      <c r="L97" s="46">
         <v>250</v>
       </c>
-      <c r="M97" s="62">
+      <c r="M97" s="46">
         <v>2866</v>
       </c>
-      <c r="N97" s="62">
+      <c r="N97" s="46">
         <v>157</v>
       </c>
-      <c r="O97" s="62">
+      <c r="O97" s="46">
         <v>318</v>
       </c>
-      <c r="P97" s="62">
+      <c r="P97" s="46">
         <v>39</v>
       </c>
-      <c r="Q97" s="62">
+      <c r="Q97" s="46">
         <v>13608</v>
       </c>
-      <c r="R97" s="62">
+      <c r="R97" s="46">
         <v>1168</v>
       </c>
     </row>
@@ -5467,52 +5464,52 @@
       <c r="B98" s="4">
         <v>2</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D98" s="30">
+      <c r="D98" s="17">
         <v>2017</v>
       </c>
-      <c r="E98" s="62">
+      <c r="E98" s="46">
         <v>886</v>
       </c>
-      <c r="F98" s="62">
+      <c r="F98" s="46">
         <v>338</v>
       </c>
-      <c r="G98" s="62">
+      <c r="G98" s="46">
         <v>3186</v>
       </c>
-      <c r="H98" s="62">
+      <c r="H98" s="46">
         <v>418</v>
       </c>
-      <c r="I98" s="62">
+      <c r="I98" s="46">
         <v>2257</v>
       </c>
-      <c r="J98" s="62">
+      <c r="J98" s="46">
         <v>379</v>
       </c>
-      <c r="K98" s="62">
+      <c r="K98" s="46">
         <v>7922</v>
       </c>
-      <c r="L98" s="62">
+      <c r="L98" s="46">
         <v>381</v>
       </c>
-      <c r="M98" s="62">
+      <c r="M98" s="46">
         <v>3899</v>
       </c>
-      <c r="N98" s="62">
+      <c r="N98" s="46">
         <v>385</v>
       </c>
-      <c r="O98" s="62">
+      <c r="O98" s="46">
         <v>476</v>
       </c>
-      <c r="P98" s="62">
+      <c r="P98" s="46">
         <v>46</v>
       </c>
-      <c r="Q98" s="62">
+      <c r="Q98" s="46">
         <v>18626</v>
       </c>
-      <c r="R98" s="62">
+      <c r="R98" s="46">
         <v>1947</v>
       </c>
     </row>
@@ -5520,52 +5517,52 @@
       <c r="B99" s="4">
         <v>3</v>
       </c>
-      <c r="C99" s="27" t="s">
+      <c r="C99" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D99" s="30">
+      <c r="D99" s="17">
         <v>2017</v>
       </c>
-      <c r="E99" s="62">
+      <c r="E99" s="46">
         <v>840</v>
       </c>
-      <c r="F99" s="62">
+      <c r="F99" s="46">
         <v>163</v>
       </c>
-      <c r="G99" s="62">
+      <c r="G99" s="46">
         <v>2174</v>
       </c>
-      <c r="H99" s="62">
+      <c r="H99" s="46">
         <v>138</v>
       </c>
-      <c r="I99" s="62">
+      <c r="I99" s="46">
         <v>4981</v>
       </c>
-      <c r="J99" s="62">
+      <c r="J99" s="46">
         <v>453</v>
       </c>
-      <c r="K99" s="62">
+      <c r="K99" s="46">
         <v>6726</v>
       </c>
-      <c r="L99" s="62">
+      <c r="L99" s="46">
         <v>168</v>
       </c>
-      <c r="M99" s="62">
+      <c r="M99" s="46">
         <v>1816</v>
       </c>
-      <c r="N99" s="62">
+      <c r="N99" s="46">
         <v>89</v>
       </c>
-      <c r="O99" s="62">
+      <c r="O99" s="46">
         <v>289</v>
       </c>
-      <c r="P99" s="62">
+      <c r="P99" s="46">
         <v>20</v>
       </c>
-      <c r="Q99" s="62">
+      <c r="Q99" s="46">
         <v>16826</v>
       </c>
-      <c r="R99" s="62">
+      <c r="R99" s="46">
         <v>1031</v>
       </c>
     </row>
@@ -5573,105 +5570,105 @@
       <c r="B100" s="4">
         <v>4</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D100" s="30">
+      <c r="D100" s="17">
         <v>2017</v>
       </c>
-      <c r="E100" s="62">
+      <c r="E100" s="46">
         <v>1402</v>
       </c>
-      <c r="F100" s="62">
+      <c r="F100" s="46">
         <v>275</v>
       </c>
-      <c r="G100" s="62">
+      <c r="G100" s="46">
         <v>3507</v>
       </c>
-      <c r="H100" s="62">
+      <c r="H100" s="46">
         <v>278</v>
       </c>
-      <c r="I100" s="62">
+      <c r="I100" s="46">
         <v>7439</v>
       </c>
-      <c r="J100" s="62">
+      <c r="J100" s="46">
         <v>956</v>
       </c>
-      <c r="K100" s="62">
+      <c r="K100" s="46">
         <v>8876</v>
       </c>
-      <c r="L100" s="62">
+      <c r="L100" s="46">
         <v>274</v>
       </c>
-      <c r="M100" s="62">
+      <c r="M100" s="46">
         <v>2706</v>
       </c>
-      <c r="N100" s="62">
+      <c r="N100" s="46">
         <v>125</v>
       </c>
-      <c r="O100" s="62">
+      <c r="O100" s="46">
         <v>859</v>
       </c>
-      <c r="P100" s="62">
+      <c r="P100" s="46">
         <v>73</v>
       </c>
-      <c r="Q100" s="62">
+      <c r="Q100" s="46">
         <v>24789</v>
       </c>
-      <c r="R100" s="62">
+      <c r="R100" s="46">
         <v>1981</v>
       </c>
     </row>
-    <row r="101" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="28">
+    <row r="101" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="15">
         <v>0</v>
       </c>
-      <c r="C101" s="29" t="s">
+      <c r="C101" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="63">
+      <c r="D101" s="47">
         <v>2017</v>
       </c>
-      <c r="E101" s="64">
+      <c r="E101" s="48">
         <v>4131</v>
       </c>
-      <c r="F101" s="64">
+      <c r="F101" s="48">
         <v>1071</v>
       </c>
-      <c r="G101" s="64">
+      <c r="G101" s="48">
         <v>11354</v>
       </c>
-      <c r="H101" s="64">
+      <c r="H101" s="48">
         <v>1091</v>
       </c>
-      <c r="I101" s="64">
+      <c r="I101" s="48">
         <v>16217</v>
       </c>
-      <c r="J101" s="64">
+      <c r="J101" s="48">
         <v>1958</v>
       </c>
-      <c r="K101" s="64">
+      <c r="K101" s="48">
         <v>28918</v>
       </c>
-      <c r="L101" s="64">
+      <c r="L101" s="48">
         <v>1073</v>
       </c>
-      <c r="M101" s="64">
+      <c r="M101" s="48">
         <v>11287</v>
       </c>
-      <c r="N101" s="64">
+      <c r="N101" s="48">
         <v>756</v>
       </c>
-      <c r="O101" s="64">
+      <c r="O101" s="48">
         <v>1942</v>
       </c>
-      <c r="P101" s="64">
+      <c r="P101" s="48">
         <v>178</v>
       </c>
-      <c r="Q101" s="64">
+      <c r="Q101" s="48">
         <v>73849</v>
       </c>
-      <c r="R101" s="64">
+      <c r="R101" s="48">
         <v>6127</v>
       </c>
     </row>
@@ -5679,52 +5676,52 @@
       <c r="B102" s="4">
         <v>1</v>
       </c>
-      <c r="C102" s="27" t="s">
+      <c r="C102" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="35">
+      <c r="D102" s="22">
         <v>2016</v>
       </c>
-      <c r="E102" s="48">
+      <c r="E102" s="35">
         <v>1160</v>
       </c>
-      <c r="F102" s="48">
+      <c r="F102" s="35">
         <v>265</v>
       </c>
-      <c r="G102" s="48">
+      <c r="G102" s="35">
         <v>2545</v>
       </c>
-      <c r="H102" s="48">
+      <c r="H102" s="35">
         <v>272</v>
       </c>
-      <c r="I102" s="48">
+      <c r="I102" s="35">
         <v>1433</v>
       </c>
-      <c r="J102" s="48">
+      <c r="J102" s="35">
         <v>130</v>
       </c>
-      <c r="K102" s="48">
+      <c r="K102" s="35">
         <v>5404</v>
       </c>
-      <c r="L102" s="48">
+      <c r="L102" s="35">
         <v>218</v>
       </c>
-      <c r="M102" s="48">
+      <c r="M102" s="35">
         <v>2606</v>
       </c>
-      <c r="N102" s="48">
+      <c r="N102" s="35">
         <v>107</v>
       </c>
-      <c r="O102" s="48">
+      <c r="O102" s="35">
         <v>368</v>
       </c>
-      <c r="P102" s="48">
+      <c r="P102" s="35">
         <v>40</v>
       </c>
-      <c r="Q102" s="48">
+      <c r="Q102" s="35">
         <v>13599</v>
       </c>
-      <c r="R102" s="48">
+      <c r="R102" s="35">
         <v>1032</v>
       </c>
     </row>
@@ -5732,52 +5729,52 @@
       <c r="B103" s="4">
         <v>2</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D103" s="35">
+      <c r="D103" s="22">
         <v>2016</v>
       </c>
-      <c r="E103" s="48">
+      <c r="E103" s="35">
         <v>1092</v>
       </c>
-      <c r="F103" s="48">
+      <c r="F103" s="35">
         <v>293</v>
       </c>
-      <c r="G103" s="48">
+      <c r="G103" s="35">
         <v>3486</v>
       </c>
-      <c r="H103" s="48">
+      <c r="H103" s="35">
         <v>404</v>
       </c>
-      <c r="I103" s="48">
+      <c r="I103" s="35">
         <v>2140</v>
       </c>
-      <c r="J103" s="48">
+      <c r="J103" s="35">
         <v>254</v>
       </c>
-      <c r="K103" s="48">
+      <c r="K103" s="35">
         <v>7807</v>
       </c>
-      <c r="L103" s="48">
+      <c r="L103" s="35">
         <v>290</v>
       </c>
-      <c r="M103" s="48">
+      <c r="M103" s="35">
         <v>3437</v>
       </c>
-      <c r="N103" s="48">
+      <c r="N103" s="35">
         <v>281</v>
       </c>
-      <c r="O103" s="48">
+      <c r="O103" s="35">
         <v>591</v>
       </c>
-      <c r="P103" s="48">
+      <c r="P103" s="35">
         <v>50</v>
       </c>
-      <c r="Q103" s="48">
+      <c r="Q103" s="35">
         <v>18553</v>
       </c>
-      <c r="R103" s="48">
+      <c r="R103" s="35">
         <v>1572</v>
       </c>
     </row>
@@ -5785,52 +5782,52 @@
       <c r="B104" s="4">
         <v>3</v>
       </c>
-      <c r="C104" s="27" t="s">
+      <c r="C104" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="35">
+      <c r="D104" s="22">
         <v>2016</v>
       </c>
-      <c r="E104" s="48">
+      <c r="E104" s="35">
         <v>1002</v>
       </c>
-      <c r="F104" s="48">
+      <c r="F104" s="35">
         <v>186</v>
       </c>
-      <c r="G104" s="48">
+      <c r="G104" s="35">
         <v>2448</v>
       </c>
-      <c r="H104" s="48">
+      <c r="H104" s="35">
         <v>152</v>
       </c>
-      <c r="I104" s="48">
+      <c r="I104" s="35">
         <v>4872</v>
       </c>
-      <c r="J104" s="48">
+      <c r="J104" s="35">
         <v>356</v>
       </c>
-      <c r="K104" s="48">
+      <c r="K104" s="35">
         <v>6375</v>
       </c>
-      <c r="L104" s="48">
+      <c r="L104" s="35">
         <v>147</v>
       </c>
-      <c r="M104" s="48">
+      <c r="M104" s="35">
         <v>1610</v>
       </c>
-      <c r="N104" s="48">
+      <c r="N104" s="35">
         <v>45</v>
       </c>
-      <c r="O104" s="48">
+      <c r="O104" s="35">
         <v>330</v>
       </c>
-      <c r="P104" s="48">
+      <c r="P104" s="35">
         <v>25</v>
       </c>
-      <c r="Q104" s="48">
+      <c r="Q104" s="35">
         <v>16637</v>
       </c>
-      <c r="R104" s="48">
+      <c r="R104" s="35">
         <v>911</v>
       </c>
     </row>
@@ -5838,105 +5835,105 @@
       <c r="B105" s="4">
         <v>4</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D105" s="35">
+      <c r="D105" s="22">
         <v>2016</v>
       </c>
-      <c r="E105" s="48">
+      <c r="E105" s="35">
         <v>1732</v>
       </c>
-      <c r="F105" s="48">
+      <c r="F105" s="35">
         <v>322</v>
       </c>
-      <c r="G105" s="48">
+      <c r="G105" s="35">
         <v>4151</v>
       </c>
-      <c r="H105" s="48">
+      <c r="H105" s="35">
         <v>279</v>
       </c>
-      <c r="I105" s="48">
+      <c r="I105" s="35">
         <v>6651</v>
       </c>
-      <c r="J105" s="48">
+      <c r="J105" s="35">
         <v>675</v>
       </c>
-      <c r="K105" s="48">
+      <c r="K105" s="35">
         <v>8696</v>
       </c>
-      <c r="L105" s="48">
+      <c r="L105" s="35">
         <v>228</v>
       </c>
-      <c r="M105" s="48">
+      <c r="M105" s="35">
         <v>2489</v>
       </c>
-      <c r="N105" s="48">
+      <c r="N105" s="35">
         <v>114</v>
       </c>
-      <c r="O105" s="48">
+      <c r="O105" s="35">
         <v>954</v>
       </c>
-      <c r="P105" s="48">
+      <c r="P105" s="35">
         <v>70</v>
       </c>
-      <c r="Q105" s="48">
+      <c r="Q105" s="35">
         <v>24673</v>
       </c>
-      <c r="R105" s="48">
+      <c r="R105" s="35">
         <v>1688</v>
       </c>
     </row>
-    <row r="106" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="61">
+    <row r="106" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="45">
         <v>0</v>
       </c>
-      <c r="C106" s="29" t="s">
+      <c r="C106" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D106" s="66">
+      <c r="D106" s="50">
         <v>2016</v>
       </c>
-      <c r="E106" s="67">
+      <c r="E106" s="51">
         <v>4986</v>
       </c>
-      <c r="F106" s="67">
+      <c r="F106" s="51">
         <v>1066</v>
       </c>
-      <c r="G106" s="67">
+      <c r="G106" s="51">
         <v>12630</v>
       </c>
-      <c r="H106" s="67">
+      <c r="H106" s="51">
         <v>1107</v>
       </c>
-      <c r="I106" s="67">
+      <c r="I106" s="51">
         <v>15096</v>
       </c>
-      <c r="J106" s="67">
+      <c r="J106" s="51">
         <v>1415</v>
       </c>
-      <c r="K106" s="67">
+      <c r="K106" s="51">
         <v>28365</v>
       </c>
-      <c r="L106" s="67">
+      <c r="L106" s="51">
         <v>883</v>
       </c>
-      <c r="M106" s="67">
+      <c r="M106" s="51">
         <v>10142</v>
       </c>
-      <c r="N106" s="67">
+      <c r="N106" s="51">
         <v>547</v>
       </c>
-      <c r="O106" s="67">
+      <c r="O106" s="51">
         <v>2243</v>
       </c>
-      <c r="P106" s="67">
+      <c r="P106" s="51">
         <v>185</v>
       </c>
-      <c r="Q106" s="67">
+      <c r="Q106" s="51">
         <v>73462</v>
       </c>
-      <c r="R106" s="67">
+      <c r="R106" s="51">
         <v>5203</v>
       </c>
     </row>
@@ -5944,52 +5941,52 @@
       <c r="B107" s="4">
         <v>1</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="35">
+      <c r="D107" s="22">
         <v>2015</v>
       </c>
-      <c r="E107" s="48">
+      <c r="E107" s="35">
         <v>1215</v>
       </c>
-      <c r="F107" s="48">
+      <c r="F107" s="35">
         <v>223</v>
       </c>
-      <c r="G107" s="48">
+      <c r="G107" s="35">
         <v>2856</v>
       </c>
-      <c r="H107" s="48">
+      <c r="H107" s="35">
         <v>209</v>
       </c>
-      <c r="I107" s="48">
+      <c r="I107" s="35">
         <v>1421</v>
       </c>
-      <c r="J107" s="48">
+      <c r="J107" s="35">
         <v>77</v>
       </c>
-      <c r="K107" s="48">
+      <c r="K107" s="35">
         <v>5394</v>
       </c>
-      <c r="L107" s="48">
+      <c r="L107" s="35">
         <v>250</v>
       </c>
-      <c r="M107" s="48">
+      <c r="M107" s="35">
         <v>2591</v>
       </c>
-      <c r="N107" s="48">
+      <c r="N107" s="35">
         <v>118</v>
       </c>
-      <c r="O107" s="48">
+      <c r="O107" s="35">
         <v>463</v>
       </c>
-      <c r="P107" s="48">
+      <c r="P107" s="35">
         <v>54</v>
       </c>
-      <c r="Q107" s="48">
+      <c r="Q107" s="35">
         <v>13979</v>
       </c>
-      <c r="R107" s="48">
+      <c r="R107" s="35">
         <v>828</v>
       </c>
     </row>
@@ -5997,52 +5994,52 @@
       <c r="B108" s="4">
         <v>2</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C108" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D108" s="35">
+      <c r="D108" s="22">
         <v>2015</v>
       </c>
-      <c r="E108" s="48">
+      <c r="E108" s="35">
         <v>1225</v>
       </c>
-      <c r="F108" s="48">
+      <c r="F108" s="35">
         <v>309</v>
       </c>
-      <c r="G108" s="48">
+      <c r="G108" s="35">
         <v>3782</v>
       </c>
-      <c r="H108" s="48">
+      <c r="H108" s="35">
         <v>359</v>
       </c>
-      <c r="I108" s="48">
+      <c r="I108" s="35">
         <v>2152</v>
       </c>
-      <c r="J108" s="48">
+      <c r="J108" s="35">
         <v>219</v>
       </c>
-      <c r="K108" s="48">
+      <c r="K108" s="35">
         <v>7832</v>
       </c>
-      <c r="L108" s="48">
+      <c r="L108" s="35">
         <v>287</v>
       </c>
-      <c r="M108" s="48">
+      <c r="M108" s="35">
         <v>3205</v>
       </c>
-      <c r="N108" s="48">
+      <c r="N108" s="35">
         <v>291</v>
       </c>
-      <c r="O108" s="48">
+      <c r="O108" s="35">
         <v>595</v>
       </c>
-      <c r="P108" s="48">
+      <c r="P108" s="35">
         <v>61</v>
       </c>
-      <c r="Q108" s="48">
+      <c r="Q108" s="35">
         <v>18791</v>
       </c>
-      <c r="R108" s="48">
+      <c r="R108" s="35">
         <v>1526</v>
       </c>
     </row>
@@ -6050,52 +6047,52 @@
       <c r="B109" s="4">
         <v>3</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C109" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="35">
+      <c r="D109" s="22">
         <v>2015</v>
       </c>
-      <c r="E109" s="48">
+      <c r="E109" s="35">
         <v>1117</v>
       </c>
-      <c r="F109" s="48">
+      <c r="F109" s="35">
         <v>191</v>
       </c>
-      <c r="G109" s="48">
+      <c r="G109" s="35">
         <v>2824</v>
       </c>
-      <c r="H109" s="48">
+      <c r="H109" s="35">
         <v>106</v>
       </c>
-      <c r="I109" s="48">
+      <c r="I109" s="35">
         <v>4759</v>
       </c>
-      <c r="J109" s="48">
+      <c r="J109" s="35">
         <v>257</v>
       </c>
-      <c r="K109" s="48">
+      <c r="K109" s="35">
         <v>6581</v>
       </c>
-      <c r="L109" s="48">
+      <c r="L109" s="35">
         <v>97</v>
       </c>
-      <c r="M109" s="48">
+      <c r="M109" s="35">
         <v>1499</v>
       </c>
-      <c r="N109" s="48">
+      <c r="N109" s="35">
         <v>45</v>
       </c>
-      <c r="O109" s="48">
+      <c r="O109" s="35">
         <v>431</v>
       </c>
-      <c r="P109" s="48">
+      <c r="P109" s="35">
         <v>34</v>
       </c>
-      <c r="Q109" s="48">
+      <c r="Q109" s="35">
         <v>17211</v>
       </c>
-      <c r="R109" s="48">
+      <c r="R109" s="35">
         <v>730</v>
       </c>
     </row>
@@ -6103,105 +6100,105 @@
       <c r="B110" s="4">
         <v>4</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C110" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D110" s="35">
+      <c r="D110" s="22">
         <v>2015</v>
       </c>
-      <c r="E110" s="48">
+      <c r="E110" s="35">
         <v>2110</v>
       </c>
-      <c r="F110" s="48">
+      <c r="F110" s="35">
         <v>343</v>
       </c>
-      <c r="G110" s="48">
+      <c r="G110" s="35">
         <v>4786</v>
       </c>
-      <c r="H110" s="48">
+      <c r="H110" s="35">
         <v>244</v>
       </c>
-      <c r="I110" s="48">
+      <c r="I110" s="35">
         <v>6198</v>
       </c>
-      <c r="J110" s="48">
+      <c r="J110" s="35">
         <v>459</v>
       </c>
-      <c r="K110" s="48">
+      <c r="K110" s="35">
         <v>8818</v>
       </c>
-      <c r="L110" s="48">
+      <c r="L110" s="35">
         <v>195</v>
       </c>
-      <c r="M110" s="48">
+      <c r="M110" s="35">
         <v>2723</v>
       </c>
-      <c r="N110" s="48">
+      <c r="N110" s="35">
         <v>75</v>
       </c>
-      <c r="O110" s="48">
+      <c r="O110" s="35">
         <v>1087</v>
       </c>
-      <c r="P110" s="48">
+      <c r="P110" s="35">
         <v>79</v>
       </c>
-      <c r="Q110" s="48">
+      <c r="Q110" s="35">
         <v>25722</v>
       </c>
-      <c r="R110" s="48">
+      <c r="R110" s="35">
         <v>1395</v>
       </c>
     </row>
-    <row r="111" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="61">
+    <row r="111" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="45">
         <v>0</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C111" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D111" s="66">
+      <c r="D111" s="50">
         <v>2015</v>
       </c>
-      <c r="E111" s="67">
+      <c r="E111" s="51">
         <v>5667</v>
       </c>
-      <c r="F111" s="67">
+      <c r="F111" s="51">
         <v>1066</v>
       </c>
-      <c r="G111" s="67">
+      <c r="G111" s="51">
         <v>14248</v>
       </c>
-      <c r="H111" s="67">
+      <c r="H111" s="51">
         <v>918</v>
       </c>
-      <c r="I111" s="67">
+      <c r="I111" s="51">
         <v>14530</v>
       </c>
-      <c r="J111" s="67">
+      <c r="J111" s="51">
         <v>1012</v>
       </c>
-      <c r="K111" s="67">
+      <c r="K111" s="51">
         <v>28664</v>
       </c>
-      <c r="L111" s="67">
+      <c r="L111" s="51">
         <v>726</v>
       </c>
-      <c r="M111" s="67">
+      <c r="M111" s="51">
         <v>10018</v>
       </c>
-      <c r="N111" s="67">
+      <c r="N111" s="51">
         <v>529</v>
       </c>
-      <c r="O111" s="67">
+      <c r="O111" s="51">
         <v>2576</v>
       </c>
-      <c r="P111" s="67">
+      <c r="P111" s="51">
         <v>228</v>
       </c>
-      <c r="Q111" s="67">
+      <c r="Q111" s="51">
         <v>75703</v>
       </c>
-      <c r="R111" s="67">
+      <c r="R111" s="51">
         <v>4479</v>
       </c>
     </row>
@@ -6209,52 +6206,52 @@
       <c r="B112" s="4">
         <v>1</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C112" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="41">
+      <c r="D112" s="28">
         <v>2014</v>
       </c>
-      <c r="E112" s="48">
+      <c r="E112" s="35">
         <v>1525</v>
       </c>
-      <c r="F112" s="48">
+      <c r="F112" s="35">
         <v>238</v>
       </c>
-      <c r="G112" s="48">
+      <c r="G112" s="35">
         <v>3550</v>
       </c>
-      <c r="H112" s="48">
+      <c r="H112" s="35">
         <v>234</v>
       </c>
-      <c r="I112" s="48">
+      <c r="I112" s="35">
         <v>1011</v>
       </c>
-      <c r="J112" s="48">
+      <c r="J112" s="35">
         <v>36</v>
       </c>
-      <c r="K112" s="48">
+      <c r="K112" s="35">
         <v>5718</v>
       </c>
-      <c r="L112" s="48">
+      <c r="L112" s="35">
         <v>165</v>
       </c>
-      <c r="M112" s="48">
+      <c r="M112" s="35">
         <v>2354</v>
       </c>
-      <c r="N112" s="48">
+      <c r="N112" s="35">
         <v>91</v>
       </c>
-      <c r="O112" s="48">
+      <c r="O112" s="35">
         <v>484</v>
       </c>
-      <c r="P112" s="48">
+      <c r="P112" s="35">
         <v>43</v>
       </c>
-      <c r="Q112" s="48">
+      <c r="Q112" s="35">
         <v>14642</v>
       </c>
-      <c r="R112" s="48">
+      <c r="R112" s="35">
         <v>807</v>
       </c>
     </row>
@@ -6262,52 +6259,52 @@
       <c r="B113" s="4">
         <v>2</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D113" s="41">
+      <c r="D113" s="28">
         <v>2014</v>
       </c>
-      <c r="E113" s="48">
+      <c r="E113" s="35">
         <v>1639</v>
       </c>
-      <c r="F113" s="48">
+      <c r="F113" s="35">
         <v>310</v>
       </c>
-      <c r="G113" s="48">
+      <c r="G113" s="35">
         <v>4372</v>
       </c>
-      <c r="H113" s="48">
+      <c r="H113" s="35">
         <v>393</v>
       </c>
-      <c r="I113" s="48">
+      <c r="I113" s="35">
         <v>1507</v>
       </c>
-      <c r="J113" s="48">
+      <c r="J113" s="35">
         <v>126</v>
       </c>
-      <c r="K113" s="48">
+      <c r="K113" s="35">
         <v>7851</v>
       </c>
-      <c r="L113" s="48">
+      <c r="L113" s="35">
         <v>274</v>
       </c>
-      <c r="M113" s="48">
+      <c r="M113" s="35">
         <v>3242</v>
       </c>
-      <c r="N113" s="48">
+      <c r="N113" s="35">
         <v>258</v>
       </c>
-      <c r="O113" s="48">
+      <c r="O113" s="35">
         <v>700</v>
       </c>
-      <c r="P113" s="48">
+      <c r="P113" s="35">
         <v>109</v>
       </c>
-      <c r="Q113" s="48">
+      <c r="Q113" s="35">
         <v>19311</v>
       </c>
-      <c r="R113" s="48">
+      <c r="R113" s="35">
         <v>1470</v>
       </c>
     </row>
@@ -6315,52 +6312,52 @@
       <c r="B114" s="4">
         <v>3</v>
       </c>
-      <c r="C114" s="27" t="s">
+      <c r="C114" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="41">
+      <c r="D114" s="28">
         <v>2014</v>
       </c>
-      <c r="E114" s="48">
+      <c r="E114" s="35">
         <v>1893</v>
       </c>
-      <c r="F114" s="48">
+      <c r="F114" s="35">
         <v>233</v>
       </c>
-      <c r="G114" s="48">
+      <c r="G114" s="35">
         <v>4787</v>
       </c>
-      <c r="H114" s="48">
+      <c r="H114" s="35">
         <v>163</v>
       </c>
-      <c r="I114" s="48">
+      <c r="I114" s="35">
         <v>2990</v>
       </c>
-      <c r="J114" s="48">
+      <c r="J114" s="35">
         <v>120</v>
       </c>
-      <c r="K114" s="48">
+      <c r="K114" s="35">
         <v>6681</v>
       </c>
-      <c r="L114" s="48">
+      <c r="L114" s="35">
         <v>117</v>
       </c>
-      <c r="M114" s="48">
+      <c r="M114" s="35">
         <v>1084</v>
       </c>
-      <c r="N114" s="48">
+      <c r="N114" s="35">
         <v>34</v>
       </c>
-      <c r="O114" s="48">
+      <c r="O114" s="35">
         <v>520</v>
       </c>
-      <c r="P114" s="48">
+      <c r="P114" s="35">
         <v>57</v>
       </c>
-      <c r="Q114" s="48">
+      <c r="Q114" s="35">
         <v>17955</v>
       </c>
-      <c r="R114" s="48">
+      <c r="R114" s="35">
         <v>724</v>
       </c>
     </row>
@@ -6368,105 +6365,105 @@
       <c r="B115" s="4">
         <v>4</v>
       </c>
-      <c r="C115" s="27" t="s">
+      <c r="C115" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D115" s="41">
+      <c r="D115" s="28">
         <v>2014</v>
       </c>
-      <c r="E115" s="48">
+      <c r="E115" s="35">
         <v>2855</v>
       </c>
-      <c r="F115" s="48">
+      <c r="F115" s="35">
         <v>411</v>
       </c>
-      <c r="G115" s="48">
+      <c r="G115" s="35">
         <v>6470</v>
       </c>
-      <c r="H115" s="48">
+      <c r="H115" s="35">
         <v>351</v>
       </c>
-      <c r="I115" s="48">
+      <c r="I115" s="35">
         <v>4094</v>
       </c>
-      <c r="J115" s="48">
+      <c r="J115" s="35">
         <v>218</v>
       </c>
-      <c r="K115" s="48">
+      <c r="K115" s="35">
         <v>8859</v>
       </c>
-      <c r="L115" s="48">
+      <c r="L115" s="35">
         <v>217</v>
       </c>
-      <c r="M115" s="48">
+      <c r="M115" s="35">
         <v>2686</v>
       </c>
-      <c r="N115" s="48">
+      <c r="N115" s="35">
         <v>67</v>
       </c>
-      <c r="O115" s="48">
+      <c r="O115" s="35">
         <v>1223</v>
       </c>
-      <c r="P115" s="48">
+      <c r="P115" s="35">
         <v>109</v>
       </c>
-      <c r="Q115" s="48">
+      <c r="Q115" s="35">
         <v>26187</v>
       </c>
-      <c r="R115" s="48">
+      <c r="R115" s="35">
         <v>1373</v>
       </c>
     </row>
-    <row r="116" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="61">
+    <row r="116" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="45">
         <v>0</v>
       </c>
-      <c r="C116" s="29" t="s">
+      <c r="C116" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D116" s="43">
+      <c r="D116" s="30">
         <v>2014</v>
       </c>
-      <c r="E116" s="68">
+      <c r="E116" s="52">
         <v>7912</v>
       </c>
-      <c r="F116" s="68">
+      <c r="F116" s="52">
         <v>1192</v>
       </c>
-      <c r="G116" s="68">
+      <c r="G116" s="52">
         <v>19179</v>
       </c>
-      <c r="H116" s="68">
+      <c r="H116" s="52">
         <v>1141</v>
       </c>
-      <c r="I116" s="68">
+      <c r="I116" s="52">
         <v>9602</v>
       </c>
-      <c r="J116" s="68">
+      <c r="J116" s="52">
         <v>500</v>
       </c>
-      <c r="K116" s="68">
+      <c r="K116" s="52">
         <v>29109</v>
       </c>
-      <c r="L116" s="68">
+      <c r="L116" s="52">
         <v>773</v>
       </c>
-      <c r="M116" s="68">
+      <c r="M116" s="52">
         <v>9366</v>
       </c>
-      <c r="N116" s="68">
+      <c r="N116" s="52">
         <v>450</v>
       </c>
-      <c r="O116" s="68">
+      <c r="O116" s="52">
         <v>2927</v>
       </c>
-      <c r="P116" s="68">
+      <c r="P116" s="52">
         <v>318</v>
       </c>
-      <c r="Q116" s="68">
+      <c r="Q116" s="52">
         <v>78095</v>
       </c>
-      <c r="R116" s="68">
+      <c r="R116" s="52">
         <v>4374</v>
       </c>
     </row>
@@ -6474,52 +6471,52 @@
       <c r="B117" s="4">
         <v>1</v>
       </c>
-      <c r="C117" s="27" t="s">
+      <c r="C117" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="43">
+      <c r="D117" s="30">
         <v>2013</v>
       </c>
-      <c r="E117" s="68">
+      <c r="E117" s="52">
         <v>1855</v>
       </c>
-      <c r="F117" s="68">
+      <c r="F117" s="52">
         <v>261</v>
       </c>
-      <c r="G117" s="68">
+      <c r="G117" s="52">
         <v>4394</v>
       </c>
-      <c r="H117" s="68">
+      <c r="H117" s="52">
         <v>367</v>
       </c>
-      <c r="I117" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="J117" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K117" s="68">
+      <c r="I117" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J117" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="52">
         <v>5993</v>
       </c>
-      <c r="L117" s="68">
+      <c r="L117" s="52">
         <v>164</v>
       </c>
-      <c r="M117" s="68">
+      <c r="M117" s="52">
         <v>2461</v>
       </c>
-      <c r="N117" s="68">
+      <c r="N117" s="52">
         <v>80</v>
       </c>
-      <c r="O117" s="68">
+      <c r="O117" s="52">
         <v>523</v>
       </c>
-      <c r="P117" s="68">
+      <c r="P117" s="52">
         <v>71</v>
       </c>
-      <c r="Q117" s="68">
+      <c r="Q117" s="52">
         <v>15226</v>
       </c>
-      <c r="R117" s="68">
+      <c r="R117" s="52">
         <v>943</v>
       </c>
     </row>
@@ -6527,52 +6524,52 @@
       <c r="B118" s="4">
         <v>2</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="43">
+      <c r="D118" s="30">
         <v>2013</v>
       </c>
-      <c r="E118" s="68">
+      <c r="E118" s="52">
         <v>2273</v>
       </c>
-      <c r="F118" s="68">
+      <c r="F118" s="52">
         <v>431</v>
       </c>
-      <c r="G118" s="68">
+      <c r="G118" s="52">
         <v>5719</v>
       </c>
-      <c r="H118" s="68">
+      <c r="H118" s="52">
         <v>523</v>
       </c>
-      <c r="I118" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="J118" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K118" s="68">
+      <c r="I118" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J118" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" s="52">
         <v>8151</v>
       </c>
-      <c r="L118" s="68">
+      <c r="L118" s="52">
         <v>360</v>
       </c>
-      <c r="M118" s="68">
+      <c r="M118" s="52">
         <v>3160</v>
       </c>
-      <c r="N118" s="68">
+      <c r="N118" s="52">
         <v>249</v>
       </c>
-      <c r="O118" s="68">
+      <c r="O118" s="52">
         <v>715</v>
       </c>
-      <c r="P118" s="68">
+      <c r="P118" s="52">
         <v>109</v>
       </c>
-      <c r="Q118" s="68">
+      <c r="Q118" s="52">
         <v>20018</v>
       </c>
-      <c r="R118" s="68">
+      <c r="R118" s="52">
         <v>1672</v>
       </c>
     </row>
@@ -6580,52 +6577,52 @@
       <c r="B119" s="4">
         <v>3</v>
       </c>
-      <c r="C119" s="27" t="s">
+      <c r="C119" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D119" s="43">
+      <c r="D119" s="30">
         <v>2013</v>
       </c>
-      <c r="E119" s="68">
+      <c r="E119" s="52">
         <v>2971</v>
       </c>
-      <c r="F119" s="68">
+      <c r="F119" s="52">
         <v>287</v>
       </c>
-      <c r="G119" s="68">
+      <c r="G119" s="52">
         <v>7449</v>
       </c>
-      <c r="H119" s="68">
+      <c r="H119" s="52">
         <v>233</v>
       </c>
-      <c r="I119" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="J119" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K119" s="68">
+      <c r="I119" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J119" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="52">
         <v>7043</v>
       </c>
-      <c r="L119" s="68">
+      <c r="L119" s="52">
         <v>95</v>
       </c>
-      <c r="M119" s="68">
+      <c r="M119" s="52">
         <v>811</v>
       </c>
-      <c r="N119" s="68">
+      <c r="N119" s="52">
         <v>14</v>
       </c>
-      <c r="O119" s="68">
+      <c r="O119" s="52">
         <v>501</v>
       </c>
-      <c r="P119" s="68">
+      <c r="P119" s="52">
         <v>48</v>
       </c>
-      <c r="Q119" s="68">
+      <c r="Q119" s="52">
         <v>18775</v>
       </c>
-      <c r="R119" s="68">
+      <c r="R119" s="52">
         <v>677</v>
       </c>
     </row>
@@ -6633,105 +6630,105 @@
       <c r="B120" s="4">
         <v>4</v>
       </c>
-      <c r="C120" s="27" t="s">
+      <c r="C120" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D120" s="43">
+      <c r="D120" s="30">
         <v>2013</v>
       </c>
-      <c r="E120" s="68">
+      <c r="E120" s="52">
         <v>4624</v>
       </c>
-      <c r="F120" s="68">
+      <c r="F120" s="52">
         <v>491</v>
       </c>
-      <c r="G120" s="68">
+      <c r="G120" s="52">
         <v>10212</v>
       </c>
-      <c r="H120" s="68">
+      <c r="H120" s="52">
         <v>470</v>
       </c>
-      <c r="I120" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="J120" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K120" s="68">
+      <c r="I120" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J120" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="52">
         <v>9149</v>
       </c>
-      <c r="L120" s="68">
+      <c r="L120" s="52">
         <v>218</v>
       </c>
-      <c r="M120" s="68">
+      <c r="M120" s="52">
         <v>2505</v>
       </c>
-      <c r="N120" s="68">
+      <c r="N120" s="52">
         <v>46</v>
       </c>
-      <c r="O120" s="68">
+      <c r="O120" s="52">
         <v>1242</v>
       </c>
-      <c r="P120" s="68">
+      <c r="P120" s="52">
         <v>117</v>
       </c>
-      <c r="Q120" s="68">
+      <c r="Q120" s="52">
         <v>27732</v>
       </c>
-      <c r="R120" s="68">
+      <c r="R120" s="52">
         <v>1342</v>
       </c>
     </row>
-    <row r="121" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="61">
+    <row r="121" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="45">
         <v>0</v>
       </c>
-      <c r="C121" s="29" t="s">
+      <c r="C121" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D121" s="43">
+      <c r="D121" s="30">
         <v>2013</v>
       </c>
-      <c r="E121" s="68">
+      <c r="E121" s="52">
         <v>11723</v>
       </c>
-      <c r="F121" s="68">
+      <c r="F121" s="52">
         <v>1470</v>
       </c>
-      <c r="G121" s="68">
+      <c r="G121" s="52">
         <v>27774</v>
       </c>
-      <c r="H121" s="68">
+      <c r="H121" s="52">
         <v>1593</v>
       </c>
-      <c r="I121" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="J121" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="K121" s="68">
+      <c r="I121" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J121" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="52">
         <v>30336</v>
       </c>
-      <c r="L121" s="68">
+      <c r="L121" s="52">
         <v>837</v>
       </c>
-      <c r="M121" s="68">
+      <c r="M121" s="52">
         <v>8937</v>
       </c>
-      <c r="N121" s="68">
+      <c r="N121" s="52">
         <v>389</v>
       </c>
-      <c r="O121" s="68">
+      <c r="O121" s="52">
         <v>2981</v>
       </c>
-      <c r="P121" s="68">
+      <c r="P121" s="52">
         <v>345</v>
       </c>
-      <c r="Q121" s="68">
+      <c r="Q121" s="52">
         <v>81751</v>
       </c>
-      <c r="R121" s="68">
+      <c r="R121" s="52">
         <v>4634</v>
       </c>
     </row>
@@ -6739,52 +6736,52 @@
       <c r="B122" s="4">
         <v>1</v>
       </c>
-      <c r="C122" s="27" t="s">
+      <c r="C122" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="41">
+      <c r="D122" s="28">
         <v>2012</v>
       </c>
-      <c r="E122" s="48">
+      <c r="E122" s="35">
         <v>2108</v>
       </c>
-      <c r="F122" s="48">
+      <c r="F122" s="35">
         <v>303</v>
       </c>
-      <c r="G122" s="48">
+      <c r="G122" s="35">
         <v>4822</v>
       </c>
-      <c r="H122" s="48">
+      <c r="H122" s="35">
         <v>371</v>
       </c>
-      <c r="I122" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J122" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K122" s="48">
+      <c r="I122" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J122" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="35">
         <v>6135</v>
       </c>
-      <c r="L122" s="48">
+      <c r="L122" s="35">
         <v>179</v>
       </c>
-      <c r="M122" s="48">
+      <c r="M122" s="35">
         <v>1668</v>
       </c>
-      <c r="N122" s="48">
+      <c r="N122" s="35">
         <v>95</v>
       </c>
-      <c r="O122" s="48">
+      <c r="O122" s="35">
         <v>546</v>
       </c>
-      <c r="P122" s="48">
+      <c r="P122" s="35">
         <v>80</v>
       </c>
-      <c r="Q122" s="48">
+      <c r="Q122" s="35">
         <v>15279</v>
       </c>
-      <c r="R122" s="48">
+      <c r="R122" s="35">
         <v>1028</v>
       </c>
     </row>
@@ -6792,52 +6789,52 @@
       <c r="B123" s="4">
         <v>2</v>
       </c>
-      <c r="C123" s="27" t="s">
+      <c r="C123" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="41">
+      <c r="D123" s="28">
         <v>2012</v>
       </c>
-      <c r="E123" s="48">
+      <c r="E123" s="35">
         <v>2454</v>
       </c>
-      <c r="F123" s="48">
+      <c r="F123" s="35">
         <v>469</v>
       </c>
-      <c r="G123" s="48">
+      <c r="G123" s="35">
         <v>6253</v>
       </c>
-      <c r="H123" s="48">
+      <c r="H123" s="35">
         <v>617</v>
       </c>
-      <c r="I123" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J123" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K123" s="48">
+      <c r="I123" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J123" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" s="35">
         <v>8408</v>
       </c>
-      <c r="L123" s="48">
+      <c r="L123" s="35">
         <v>407</v>
       </c>
-      <c r="M123" s="48">
+      <c r="M123" s="35">
         <v>2629</v>
       </c>
-      <c r="N123" s="48">
+      <c r="N123" s="35">
         <v>244</v>
       </c>
-      <c r="O123" s="48">
+      <c r="O123" s="35">
         <v>814</v>
       </c>
-      <c r="P123" s="48">
+      <c r="P123" s="35">
         <v>165</v>
       </c>
-      <c r="Q123" s="48">
+      <c r="Q123" s="35">
         <v>20558</v>
       </c>
-      <c r="R123" s="48">
+      <c r="R123" s="35">
         <v>1902</v>
       </c>
     </row>
@@ -6845,52 +6842,52 @@
       <c r="B124" s="4">
         <v>3</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D124" s="41">
+      <c r="D124" s="28">
         <v>2012</v>
       </c>
-      <c r="E124" s="48">
+      <c r="E124" s="35">
         <v>3067</v>
       </c>
-      <c r="F124" s="48">
+      <c r="F124" s="35">
         <v>326</v>
       </c>
-      <c r="G124" s="48">
+      <c r="G124" s="35">
         <v>7418</v>
       </c>
-      <c r="H124" s="48">
+      <c r="H124" s="35">
         <v>258</v>
       </c>
-      <c r="I124" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J124" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K124" s="48">
+      <c r="I124" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J124" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" s="35">
         <v>7321</v>
       </c>
-      <c r="L124" s="48">
+      <c r="L124" s="35">
         <v>117</v>
       </c>
-      <c r="M124" s="48">
+      <c r="M124" s="35">
         <v>540</v>
       </c>
-      <c r="N124" s="48">
+      <c r="N124" s="35">
         <v>7</v>
       </c>
-      <c r="O124" s="48">
+      <c r="O124" s="35">
         <v>570</v>
       </c>
-      <c r="P124" s="48">
+      <c r="P124" s="35">
         <v>64</v>
       </c>
-      <c r="Q124" s="48">
+      <c r="Q124" s="35">
         <v>18916</v>
       </c>
-      <c r="R124" s="48">
+      <c r="R124" s="35">
         <v>772</v>
       </c>
     </row>
@@ -6898,105 +6895,105 @@
       <c r="B125" s="4">
         <v>4</v>
       </c>
-      <c r="C125" s="27" t="s">
+      <c r="C125" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D125" s="41">
+      <c r="D125" s="28">
         <v>2012</v>
       </c>
-      <c r="E125" s="48">
+      <c r="E125" s="35">
         <v>5026</v>
       </c>
-      <c r="F125" s="48">
+      <c r="F125" s="35">
         <v>558</v>
       </c>
-      <c r="G125" s="48">
+      <c r="G125" s="35">
         <v>10652</v>
       </c>
-      <c r="H125" s="48">
+      <c r="H125" s="35">
         <v>507</v>
       </c>
-      <c r="I125" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J125" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K125" s="48">
+      <c r="I125" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J125" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" s="35">
         <v>9324</v>
       </c>
-      <c r="L125" s="48">
+      <c r="L125" s="35">
         <v>202</v>
       </c>
-      <c r="M125" s="48">
+      <c r="M125" s="35">
         <v>1762</v>
       </c>
-      <c r="N125" s="48">
+      <c r="N125" s="35">
         <v>26</v>
       </c>
-      <c r="O125" s="48">
+      <c r="O125" s="35">
         <v>1212</v>
       </c>
-      <c r="P125" s="48">
+      <c r="P125" s="35">
         <v>135</v>
       </c>
-      <c r="Q125" s="48">
+      <c r="Q125" s="35">
         <v>27976</v>
       </c>
-      <c r="R125" s="48">
+      <c r="R125" s="35">
         <v>1428</v>
       </c>
     </row>
-    <row r="126" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="61">
+    <row r="126" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="45">
         <v>0</v>
       </c>
-      <c r="C126" s="29" t="s">
+      <c r="C126" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D126" s="43">
+      <c r="D126" s="30">
         <v>2012</v>
       </c>
-      <c r="E126" s="68">
+      <c r="E126" s="52">
         <v>12655</v>
       </c>
-      <c r="F126" s="68">
+      <c r="F126" s="52">
         <v>1656</v>
       </c>
-      <c r="G126" s="68">
+      <c r="G126" s="52">
         <v>29145</v>
       </c>
-      <c r="H126" s="68">
+      <c r="H126" s="52">
         <v>1753</v>
       </c>
-      <c r="I126" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="J126" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="K126" s="68">
+      <c r="I126" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J126" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" s="52">
         <v>31188</v>
       </c>
-      <c r="L126" s="68">
+      <c r="L126" s="52">
         <v>905</v>
       </c>
-      <c r="M126" s="68">
+      <c r="M126" s="52">
         <v>6599</v>
       </c>
-      <c r="N126" s="68">
+      <c r="N126" s="52">
         <v>372</v>
       </c>
-      <c r="O126" s="68">
+      <c r="O126" s="52">
         <v>3142</v>
       </c>
-      <c r="P126" s="68">
+      <c r="P126" s="52">
         <v>444</v>
       </c>
-      <c r="Q126" s="68">
+      <c r="Q126" s="52">
         <v>82729</v>
       </c>
-      <c r="R126" s="68">
+      <c r="R126" s="52">
         <v>5130</v>
       </c>
     </row>
@@ -7004,52 +7001,52 @@
       <c r="B127" s="4">
         <v>1</v>
       </c>
-      <c r="C127" s="27" t="s">
+      <c r="C127" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="43">
+      <c r="D127" s="30">
         <v>2011</v>
       </c>
-      <c r="E127" s="48">
+      <c r="E127" s="35">
         <v>2267</v>
       </c>
-      <c r="F127" s="48">
+      <c r="F127" s="35">
         <v>328</v>
       </c>
-      <c r="G127" s="48">
+      <c r="G127" s="35">
         <v>5244</v>
       </c>
-      <c r="H127" s="48">
+      <c r="H127" s="35">
         <v>399</v>
       </c>
-      <c r="I127" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J127" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K127" s="48">
+      <c r="I127" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J127" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="35">
         <v>6279</v>
       </c>
-      <c r="L127" s="48">
+      <c r="L127" s="35">
         <v>189</v>
       </c>
-      <c r="M127" s="48">
+      <c r="M127" s="35">
         <v>1205</v>
       </c>
-      <c r="N127" s="48">
+      <c r="N127" s="35">
         <v>66</v>
       </c>
-      <c r="O127" s="48">
+      <c r="O127" s="35">
         <v>520</v>
       </c>
-      <c r="P127" s="48">
+      <c r="P127" s="35">
         <v>105</v>
       </c>
-      <c r="Q127" s="48">
+      <c r="Q127" s="35">
         <v>15948</v>
       </c>
-      <c r="R127" s="48">
+      <c r="R127" s="35">
         <v>1087</v>
       </c>
     </row>
@@ -7057,52 +7054,52 @@
       <c r="B128" s="4">
         <v>2</v>
       </c>
-      <c r="C128" s="27" t="s">
+      <c r="C128" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D128" s="43">
+      <c r="D128" s="30">
         <v>2011</v>
       </c>
-      <c r="E128" s="48">
+      <c r="E128" s="35">
         <v>2749</v>
       </c>
-      <c r="F128" s="48">
+      <c r="F128" s="35">
         <v>497</v>
       </c>
-      <c r="G128" s="48">
+      <c r="G128" s="35">
         <v>7156</v>
       </c>
-      <c r="H128" s="48">
+      <c r="H128" s="35">
         <v>667</v>
       </c>
-      <c r="I128" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J128" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K128" s="48">
+      <c r="I128" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J128" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" s="35">
         <v>8736</v>
       </c>
-      <c r="L128" s="48">
+      <c r="L128" s="35">
         <v>443</v>
       </c>
-      <c r="M128" s="48">
+      <c r="M128" s="35">
         <v>1658</v>
       </c>
-      <c r="N128" s="48">
+      <c r="N128" s="35">
         <v>185</v>
       </c>
-      <c r="O128" s="48">
+      <c r="O128" s="35">
         <v>848</v>
       </c>
-      <c r="P128" s="48">
+      <c r="P128" s="35">
         <v>196</v>
       </c>
-      <c r="Q128" s="48">
+      <c r="Q128" s="35">
         <v>21147</v>
       </c>
-      <c r="R128" s="48">
+      <c r="R128" s="35">
         <v>1988</v>
       </c>
     </row>
@@ -7110,52 +7107,52 @@
       <c r="B129" s="4">
         <v>3</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="43">
+      <c r="D129" s="30">
         <v>2011</v>
       </c>
-      <c r="E129" s="48">
+      <c r="E129" s="35">
         <v>3460</v>
       </c>
-      <c r="F129" s="48">
+      <c r="F129" s="35">
         <v>351</v>
       </c>
-      <c r="G129" s="48">
+      <c r="G129" s="35">
         <v>7851</v>
       </c>
-      <c r="H129" s="48">
+      <c r="H129" s="35">
         <v>288</v>
       </c>
-      <c r="I129" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J129" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K129" s="48">
+      <c r="I129" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J129" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K129" s="35">
         <v>7580</v>
       </c>
-      <c r="L129" s="48">
+      <c r="L129" s="35">
         <v>138</v>
       </c>
-      <c r="M129" s="48">
+      <c r="M129" s="35">
         <v>383</v>
       </c>
-      <c r="N129" s="48">
+      <c r="N129" s="35">
         <v>1</v>
       </c>
-      <c r="O129" s="48">
+      <c r="O129" s="35">
         <v>609</v>
       </c>
-      <c r="P129" s="48">
+      <c r="P129" s="35">
         <v>84</v>
       </c>
-      <c r="Q129" s="48">
+      <c r="Q129" s="35">
         <v>19883</v>
       </c>
-      <c r="R129" s="48">
+      <c r="R129" s="35">
         <v>862</v>
       </c>
     </row>
@@ -7163,105 +7160,105 @@
       <c r="B130" s="4">
         <v>4</v>
       </c>
-      <c r="C130" s="27" t="s">
+      <c r="C130" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D130" s="43">
+      <c r="D130" s="30">
         <v>2011</v>
       </c>
-      <c r="E130" s="48">
+      <c r="E130" s="35">
         <v>5474</v>
       </c>
-      <c r="F130" s="48">
+      <c r="F130" s="35">
         <v>613</v>
       </c>
-      <c r="G130" s="48">
+      <c r="G130" s="35">
         <v>11289</v>
       </c>
-      <c r="H130" s="48">
+      <c r="H130" s="35">
         <v>537</v>
       </c>
-      <c r="I130" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="J130" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="K130" s="48">
+      <c r="I130" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J130" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="35">
         <v>9755</v>
       </c>
-      <c r="L130" s="48">
+      <c r="L130" s="35">
         <v>243</v>
       </c>
-      <c r="M130" s="48">
+      <c r="M130" s="35">
         <v>1435</v>
       </c>
-      <c r="N130" s="48">
+      <c r="N130" s="35">
         <v>21</v>
       </c>
-      <c r="O130" s="48">
+      <c r="O130" s="35">
         <v>1225</v>
       </c>
-      <c r="P130" s="48">
+      <c r="P130" s="35">
         <v>151</v>
       </c>
-      <c r="Q130" s="48">
+      <c r="Q130" s="35">
         <v>29178</v>
       </c>
-      <c r="R130" s="48">
+      <c r="R130" s="35">
         <v>1565</v>
       </c>
     </row>
-    <row r="131" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="61">
+    <row r="131" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="45">
         <v>0</v>
       </c>
-      <c r="C131" s="29" t="s">
+      <c r="C131" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D131" s="43">
+      <c r="D131" s="30">
         <v>2011</v>
       </c>
-      <c r="E131" s="73">
+      <c r="E131" s="57">
         <v>13950</v>
       </c>
-      <c r="F131" s="67">
+      <c r="F131" s="51">
         <v>1789</v>
       </c>
-      <c r="G131" s="73">
+      <c r="G131" s="57">
         <v>19179</v>
       </c>
-      <c r="H131" s="67">
+      <c r="H131" s="51">
         <v>14489</v>
       </c>
-      <c r="I131" s="74" t="s">
-        <v>23</v>
-      </c>
-      <c r="J131" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="K131" s="73">
+      <c r="I131" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="J131" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="57">
         <v>32546</v>
       </c>
-      <c r="L131" s="67">
+      <c r="L131" s="51">
         <v>1013</v>
       </c>
-      <c r="M131" s="73">
+      <c r="M131" s="57">
         <v>4681</v>
       </c>
-      <c r="N131" s="67">
+      <c r="N131" s="51">
         <v>273</v>
       </c>
-      <c r="O131" s="73">
+      <c r="O131" s="57">
         <v>3202</v>
       </c>
-      <c r="P131" s="73">
+      <c r="P131" s="57">
         <v>536</v>
       </c>
-      <c r="Q131" s="67">
+      <c r="Q131" s="51">
         <v>86156</v>
       </c>
-      <c r="R131" s="67">
+      <c r="R131" s="51">
         <v>5502</v>
       </c>
     </row>
@@ -7269,52 +7266,52 @@
       <c r="B132" s="4">
         <v>1</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="41">
+      <c r="D132" s="28">
         <v>2010</v>
       </c>
-      <c r="E132" s="48">
+      <c r="E132" s="35">
         <v>2369</v>
       </c>
-      <c r="F132" s="48">
+      <c r="F132" s="35">
         <v>378</v>
       </c>
-      <c r="G132" s="48">
+      <c r="G132" s="35">
         <v>5306</v>
       </c>
-      <c r="H132" s="48">
+      <c r="H132" s="35">
         <v>391</v>
       </c>
-      <c r="I132" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J132" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K132" s="48">
+      <c r="I132" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J132" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K132" s="35">
         <v>6860</v>
       </c>
-      <c r="L132" s="48">
+      <c r="L132" s="35">
         <v>210</v>
       </c>
-      <c r="M132" s="48">
+      <c r="M132" s="35">
         <v>1185</v>
       </c>
-      <c r="N132" s="48">
+      <c r="N132" s="35">
         <v>61</v>
       </c>
-      <c r="O132" s="48">
+      <c r="O132" s="35">
         <v>531</v>
       </c>
-      <c r="P132" s="48">
+      <c r="P132" s="35">
         <v>107</v>
       </c>
-      <c r="Q132" s="48">
+      <c r="Q132" s="35">
         <v>16251</v>
       </c>
-      <c r="R132" s="48">
+      <c r="R132" s="35">
         <v>1147</v>
       </c>
     </row>
@@ -7322,52 +7319,52 @@
       <c r="B133" s="4">
         <v>2</v>
       </c>
-      <c r="C133" s="27" t="s">
+      <c r="C133" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D133" s="41">
+      <c r="D133" s="28">
         <v>2010</v>
       </c>
-      <c r="E133" s="48">
+      <c r="E133" s="35">
         <v>2775</v>
       </c>
-      <c r="F133" s="48">
+      <c r="F133" s="35">
         <v>538</v>
       </c>
-      <c r="G133" s="48">
+      <c r="G133" s="35">
         <v>6804</v>
       </c>
-      <c r="H133" s="48">
+      <c r="H133" s="35">
         <v>684</v>
       </c>
-      <c r="I133" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J133" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K133" s="48">
+      <c r="I133" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J133" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K133" s="35">
         <v>9063</v>
       </c>
-      <c r="L133" s="48">
+      <c r="L133" s="35">
         <v>411</v>
       </c>
-      <c r="M133" s="48">
+      <c r="M133" s="35">
         <v>1643</v>
       </c>
-      <c r="N133" s="48">
+      <c r="N133" s="35">
         <v>147</v>
       </c>
-      <c r="O133" s="48">
+      <c r="O133" s="35">
         <v>845</v>
       </c>
-      <c r="P133" s="48">
+      <c r="P133" s="35">
         <v>207</v>
       </c>
-      <c r="Q133" s="48">
+      <c r="Q133" s="35">
         <v>21130</v>
       </c>
-      <c r="R133" s="48">
+      <c r="R133" s="35">
         <v>1987</v>
       </c>
     </row>
@@ -7375,52 +7372,52 @@
       <c r="B134" s="4">
         <v>3</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="41">
+      <c r="D134" s="28">
         <v>2010</v>
       </c>
-      <c r="E134" s="48">
+      <c r="E134" s="35">
         <v>3467</v>
       </c>
-      <c r="F134" s="48">
+      <c r="F134" s="35">
         <v>357</v>
       </c>
-      <c r="G134" s="48">
+      <c r="G134" s="35">
         <v>7849</v>
       </c>
-      <c r="H134" s="48">
+      <c r="H134" s="35">
         <v>271</v>
       </c>
-      <c r="I134" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J134" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K134" s="48">
+      <c r="I134" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J134" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K134" s="35">
         <v>7841</v>
       </c>
-      <c r="L134" s="48">
+      <c r="L134" s="35">
         <v>135</v>
       </c>
-      <c r="M134" s="48">
+      <c r="M134" s="35">
         <v>349</v>
       </c>
-      <c r="N134" s="48">
+      <c r="N134" s="35">
         <v>2</v>
       </c>
-      <c r="O134" s="48">
+      <c r="O134" s="35">
         <v>587</v>
       </c>
-      <c r="P134" s="48">
+      <c r="P134" s="35">
         <v>56</v>
       </c>
-      <c r="Q134" s="48">
+      <c r="Q134" s="35">
         <v>20093</v>
       </c>
-      <c r="R134" s="48">
+      <c r="R134" s="35">
         <v>821</v>
       </c>
     </row>
@@ -7428,105 +7425,105 @@
       <c r="B135" s="4">
         <v>4</v>
       </c>
-      <c r="C135" s="27" t="s">
+      <c r="C135" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D135" s="41">
+      <c r="D135" s="28">
         <v>2010</v>
       </c>
-      <c r="E135" s="48">
+      <c r="E135" s="35">
         <v>5565</v>
       </c>
-      <c r="F135" s="48">
+      <c r="F135" s="35">
         <v>571</v>
       </c>
-      <c r="G135" s="48">
+      <c r="G135" s="35">
         <v>11296</v>
       </c>
-      <c r="H135" s="48">
+      <c r="H135" s="35">
         <v>483</v>
       </c>
-      <c r="I135" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J135" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K135" s="48">
+      <c r="I135" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J135" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K135" s="35">
         <v>10290</v>
       </c>
-      <c r="L135" s="48">
+      <c r="L135" s="35">
         <v>230</v>
       </c>
-      <c r="M135" s="48">
+      <c r="M135" s="35">
         <v>1315</v>
       </c>
-      <c r="N135" s="48">
+      <c r="N135" s="35">
         <v>22</v>
       </c>
-      <c r="O135" s="48">
+      <c r="O135" s="35">
         <v>1211</v>
       </c>
-      <c r="P135" s="48">
+      <c r="P135" s="35">
         <v>133</v>
       </c>
-      <c r="Q135" s="48">
+      <c r="Q135" s="35">
         <v>29677</v>
       </c>
-      <c r="R135" s="48">
+      <c r="R135" s="35">
         <v>1439</v>
       </c>
     </row>
-    <row r="136" spans="2:18" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="61">
+    <row r="136" spans="2:18" s="49" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="45">
         <v>0</v>
       </c>
-      <c r="C136" s="29" t="s">
+      <c r="C136" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D136" s="43">
+      <c r="D136" s="30">
         <v>2010</v>
       </c>
-      <c r="E136" s="68">
+      <c r="E136" s="52">
         <v>14176</v>
       </c>
-      <c r="F136" s="68">
+      <c r="F136" s="52">
         <v>1844</v>
       </c>
-      <c r="G136" s="68">
+      <c r="G136" s="52">
         <v>31255</v>
       </c>
-      <c r="H136" s="68">
+      <c r="H136" s="52">
         <v>1829</v>
       </c>
-      <c r="I136" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="J136" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="K136" s="68">
+      <c r="I136" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J136" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K136" s="52">
         <v>34054</v>
       </c>
-      <c r="L136" s="68">
+      <c r="L136" s="52">
         <v>986</v>
       </c>
-      <c r="M136" s="68">
+      <c r="M136" s="52">
         <v>4492</v>
       </c>
-      <c r="N136" s="68">
+      <c r="N136" s="52">
         <v>232</v>
       </c>
-      <c r="O136" s="68">
+      <c r="O136" s="52">
         <v>3174</v>
       </c>
-      <c r="P136" s="68">
+      <c r="P136" s="52">
         <v>503</v>
       </c>
-      <c r="Q136" s="68">
+      <c r="Q136" s="52">
         <v>87151</v>
       </c>
-      <c r="R136" s="68">
+      <c r="R136" s="52">
         <v>5394</v>
       </c>
     </row>
@@ -7534,52 +7531,52 @@
       <c r="B137" s="4">
         <v>1</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D137" s="41">
+      <c r="D137" s="28">
         <v>2005</v>
       </c>
-      <c r="E137" s="48">
+      <c r="E137" s="35">
         <v>3686</v>
       </c>
-      <c r="F137" s="48">
+      <c r="F137" s="35">
         <v>555</v>
       </c>
-      <c r="G137" s="48">
+      <c r="G137" s="35">
         <v>6073</v>
       </c>
-      <c r="H137" s="48">
+      <c r="H137" s="35">
         <v>418</v>
       </c>
-      <c r="I137" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J137" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K137" s="48">
+      <c r="I137" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J137" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K137" s="35">
         <v>6116</v>
       </c>
-      <c r="L137" s="48">
+      <c r="L137" s="35">
         <v>196</v>
       </c>
-      <c r="M137" s="48">
+      <c r="M137" s="35">
         <v>1045</v>
       </c>
-      <c r="N137" s="48">
+      <c r="N137" s="35">
         <v>67</v>
       </c>
-      <c r="O137" s="48">
+      <c r="O137" s="35">
         <v>776</v>
       </c>
-      <c r="P137" s="48">
+      <c r="P137" s="35">
         <v>165</v>
       </c>
-      <c r="Q137" s="48">
+      <c r="Q137" s="35">
         <v>17696</v>
       </c>
-      <c r="R137" s="48">
+      <c r="R137" s="35">
         <v>1401</v>
       </c>
     </row>
@@ -7587,52 +7584,52 @@
       <c r="B138" s="4">
         <v>2</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D138" s="41">
+      <c r="D138" s="28">
         <v>2005</v>
       </c>
-      <c r="E138" s="48">
+      <c r="E138" s="35">
         <v>3977</v>
       </c>
-      <c r="F138" s="48">
+      <c r="F138" s="35">
         <v>686</v>
       </c>
-      <c r="G138" s="48">
+      <c r="G138" s="35">
         <v>7446</v>
       </c>
-      <c r="H138" s="48">
+      <c r="H138" s="35">
         <v>758</v>
       </c>
-      <c r="I138" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J138" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K138" s="48">
+      <c r="I138" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J138" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K138" s="35">
         <v>7820</v>
       </c>
-      <c r="L138" s="48">
+      <c r="L138" s="35">
         <v>496</v>
       </c>
-      <c r="M138" s="48">
+      <c r="M138" s="35">
         <v>1511</v>
       </c>
-      <c r="N138" s="48">
+      <c r="N138" s="35">
         <v>141</v>
       </c>
-      <c r="O138" s="48">
+      <c r="O138" s="35">
         <v>1028</v>
       </c>
-      <c r="P138" s="48">
+      <c r="P138" s="35">
         <v>306</v>
       </c>
-      <c r="Q138" s="48">
+      <c r="Q138" s="35">
         <v>21782</v>
       </c>
-      <c r="R138" s="48">
+      <c r="R138" s="35">
         <v>2387</v>
       </c>
     </row>
@@ -7640,52 +7637,52 @@
       <c r="B139" s="4">
         <v>3</v>
       </c>
-      <c r="C139" s="27" t="s">
+      <c r="C139" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="41">
+      <c r="D139" s="28">
         <v>2005</v>
       </c>
-      <c r="E139" s="48">
+      <c r="E139" s="35">
         <v>5066</v>
       </c>
-      <c r="F139" s="48">
+      <c r="F139" s="35">
         <v>527</v>
       </c>
-      <c r="G139" s="48">
+      <c r="G139" s="35">
         <v>7733</v>
       </c>
-      <c r="H139" s="48">
+      <c r="H139" s="35">
         <v>269</v>
       </c>
-      <c r="I139" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J139" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K139" s="48">
+      <c r="I139" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J139" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K139" s="35">
         <v>6699</v>
       </c>
-      <c r="L139" s="48">
+      <c r="L139" s="35">
         <v>131</v>
       </c>
-      <c r="M139" s="48">
+      <c r="M139" s="35">
         <v>316</v>
       </c>
-      <c r="N139" s="48">
+      <c r="N139" s="35">
         <v>0</v>
       </c>
-      <c r="O139" s="48">
+      <c r="O139" s="35">
         <v>818</v>
       </c>
-      <c r="P139" s="48">
+      <c r="P139" s="35">
         <v>137</v>
       </c>
-      <c r="Q139" s="48">
+      <c r="Q139" s="35">
         <v>20632</v>
       </c>
-      <c r="R139" s="48">
+      <c r="R139" s="35">
         <v>1064</v>
       </c>
     </row>
@@ -7693,260 +7690,260 @@
       <c r="B140" s="4">
         <v>4</v>
       </c>
-      <c r="C140" s="27" t="s">
+      <c r="C140" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D140" s="41">
+      <c r="D140" s="28">
         <v>2005</v>
       </c>
-      <c r="E140" s="48">
+      <c r="E140" s="35">
         <v>8129</v>
       </c>
-      <c r="F140" s="48">
+      <c r="F140" s="35">
         <v>699</v>
       </c>
-      <c r="G140" s="48">
+      <c r="G140" s="35">
         <v>11015</v>
       </c>
-      <c r="H140" s="48">
+      <c r="H140" s="35">
         <v>455</v>
       </c>
-      <c r="I140" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J140" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="K140" s="48">
+      <c r="I140" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="J140" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K140" s="35">
         <v>8900</v>
       </c>
-      <c r="L140" s="48">
+      <c r="L140" s="35">
         <v>238</v>
       </c>
-      <c r="M140" s="48">
+      <c r="M140" s="35">
         <v>1222</v>
       </c>
-      <c r="N140" s="48">
+      <c r="N140" s="35">
         <v>42</v>
       </c>
-      <c r="O140" s="48">
+      <c r="O140" s="35">
         <v>1648</v>
       </c>
-      <c r="P140" s="48">
+      <c r="P140" s="35">
         <v>247</v>
       </c>
-      <c r="Q140" s="48">
+      <c r="Q140" s="35">
         <v>30914</v>
       </c>
-      <c r="R140" s="48">
+      <c r="R140" s="35">
         <v>1681</v>
       </c>
     </row>
     <row r="141" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="61">
+      <c r="B141" s="45">
         <v>0</v>
       </c>
-      <c r="C141" s="29" t="s">
+      <c r="C141" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D141" s="43">
+      <c r="D141" s="30">
         <v>2005</v>
       </c>
-      <c r="E141" s="68">
+      <c r="E141" s="52">
         <v>20858</v>
       </c>
-      <c r="F141" s="68">
+      <c r="F141" s="52">
         <v>2467</v>
       </c>
-      <c r="G141" s="68">
+      <c r="G141" s="52">
         <v>32267</v>
       </c>
-      <c r="H141" s="68">
+      <c r="H141" s="52">
         <v>1900</v>
       </c>
-      <c r="I141" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="J141" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="K141" s="68">
+      <c r="I141" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="J141" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K141" s="52">
         <v>29535</v>
       </c>
-      <c r="L141" s="68">
+      <c r="L141" s="52">
         <v>1061</v>
       </c>
-      <c r="M141" s="68">
+      <c r="M141" s="52">
         <v>4094</v>
       </c>
-      <c r="N141" s="68">
+      <c r="N141" s="52">
         <v>250</v>
       </c>
-      <c r="O141" s="68">
+      <c r="O141" s="52">
         <v>4270</v>
       </c>
-      <c r="P141" s="68">
+      <c r="P141" s="52">
         <v>855</v>
       </c>
-      <c r="Q141" s="68">
+      <c r="Q141" s="52">
         <v>91024</v>
       </c>
-      <c r="R141" s="68">
+      <c r="R141" s="52">
         <v>6533</v>
       </c>
     </row>
     <row r="142" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B142" s="49"/>
-      <c r="C142" s="39"/>
-      <c r="D142" s="50"/>
-      <c r="E142" s="50"/>
-      <c r="F142" s="50"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="51"/>
-      <c r="I142" s="51"/>
-      <c r="J142" s="50"/>
-      <c r="K142" s="50"/>
-      <c r="L142" s="50"/>
-      <c r="M142" s="50"/>
-      <c r="N142" s="50"/>
-      <c r="O142" s="50"/>
-      <c r="P142" s="50"/>
-      <c r="Q142" s="50"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="37"/>
+      <c r="E142" s="37"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="38"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="37"/>
+      <c r="L142" s="37"/>
+      <c r="M142" s="37"/>
+      <c r="N142" s="37"/>
+      <c r="O142" s="37"/>
+      <c r="P142" s="37"/>
+      <c r="Q142" s="37"/>
     </row>
     <row r="143" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="52"/>
-      <c r="C143" s="53" t="s">
+      <c r="B143" s="39"/>
+      <c r="C143" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D143" s="54"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54"/>
-      <c r="H143" s="54"/>
-      <c r="I143" s="54"/>
-      <c r="J143" s="54"/>
-      <c r="K143" s="50"/>
-      <c r="L143" s="50"/>
-      <c r="M143" s="50"/>
-      <c r="N143" s="50"/>
-      <c r="O143" s="50"/>
-      <c r="P143" s="50"/>
-      <c r="Q143" s="50"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
+      <c r="K143" s="37"/>
+      <c r="L143" s="37"/>
+      <c r="M143" s="37"/>
+      <c r="N143" s="37"/>
+      <c r="O143" s="37"/>
+      <c r="P143" s="37"/>
+      <c r="Q143" s="37"/>
     </row>
     <row r="144" spans="2:18" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="54" t="s">
+      <c r="C144" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="54"/>
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="50"/>
-      <c r="L144" s="50"/>
-      <c r="M144" s="50"/>
-      <c r="N144" s="50"/>
-      <c r="O144" s="50"/>
-      <c r="P144" s="50"/>
-      <c r="Q144" s="50"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="37"/>
+      <c r="L144" s="37"/>
+      <c r="M144" s="37"/>
+      <c r="N144" s="37"/>
+      <c r="O144" s="37"/>
+      <c r="P144" s="37"/>
+      <c r="Q144" s="37"/>
     </row>
     <row r="145" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="55"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="56"/>
-      <c r="H145" s="55"/>
-      <c r="I145" s="55"/>
-      <c r="J145" s="55"/>
-      <c r="K145" s="50"/>
-      <c r="L145" s="50"/>
-      <c r="M145" s="50"/>
-      <c r="N145" s="50"/>
-      <c r="O145" s="50"/>
-      <c r="P145" s="50"/>
-      <c r="Q145" s="50"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="42"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="42"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="42"/>
+      <c r="K145" s="37"/>
+      <c r="L145" s="37"/>
+      <c r="M145" s="37"/>
+      <c r="N145" s="37"/>
+      <c r="O145" s="37"/>
+      <c r="P145" s="37"/>
+      <c r="Q145" s="37"/>
     </row>
     <row r="146" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="57" t="s">
+      <c r="C146" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
-      <c r="J146" s="57"/>
-      <c r="K146" s="50"/>
-      <c r="L146" s="50"/>
-      <c r="M146" s="50"/>
-      <c r="N146" s="50"/>
-      <c r="O146" s="50"/>
-      <c r="P146" s="50"/>
-      <c r="Q146" s="50"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
+      <c r="I146" s="44"/>
+      <c r="J146" s="44"/>
+      <c r="K146" s="37"/>
+      <c r="L146" s="37"/>
+      <c r="M146" s="37"/>
+      <c r="N146" s="37"/>
+      <c r="O146" s="37"/>
+      <c r="P146" s="37"/>
+      <c r="Q146" s="37"/>
     </row>
     <row r="147" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="61"/>
-      <c r="C147" s="57" t="s">
+      <c r="B147" s="45"/>
+      <c r="C147" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="76"/>
-      <c r="E147" s="76"/>
-      <c r="F147" s="77"/>
-      <c r="G147" s="77"/>
-      <c r="H147" s="76"/>
-      <c r="I147" s="76"/>
-      <c r="J147" s="77"/>
-      <c r="K147" s="77"/>
-      <c r="L147" s="76"/>
-      <c r="M147" s="76"/>
-      <c r="N147" s="78"/>
-      <c r="O147" s="78"/>
-      <c r="P147" s="67"/>
-      <c r="Q147" s="67"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="61"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="61"/>
+      <c r="K147" s="61"/>
+      <c r="L147" s="60"/>
+      <c r="M147" s="60"/>
+      <c r="N147" s="62"/>
+      <c r="O147" s="62"/>
+      <c r="P147" s="51"/>
+      <c r="Q147" s="51"/>
     </row>
     <row r="148" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="57" t="s">
+      <c r="C148" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="149" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="57" t="s">
+      <c r="C149" s="44" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="150" spans="2:17" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="79" t="s">
+      <c r="C150" s="63" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="G78:H78"/>
     <mergeCell ref="E80:R80"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="E8:R8"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="Q78:R78"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C150" r:id="rId1" xr:uid="{D18AAF9E-3596-4E1B-9052-5E63967923EC}"/>
